--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C5E46-AB67-4495-A093-168B4EC4C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CAD50-EF10-4A54-B25A-5475F9D66010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="304">
   <si>
     <t>CODE</t>
   </si>
@@ -719,21 +719,6 @@
     <t>Japanese for Beginners</t>
   </si>
   <si>
-    <t>PRPG17</t>
-  </si>
-  <si>
-    <t>SHAIK KALEEMULLA</t>
-  </si>
-  <si>
-    <t>VIJAYA CHAMUNDEESWARI S P</t>
-  </si>
-  <si>
-    <t>TT620</t>
-  </si>
-  <si>
-    <t>TT621</t>
-  </si>
-  <si>
     <t>PHY1901</t>
   </si>
   <si>
@@ -843,6 +828,114 @@
   </si>
   <si>
     <t>Predictive Analytics</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>BHASKAR SEN GUPTA</t>
+  </si>
+  <si>
+    <t>SJT215</t>
+  </si>
+  <si>
+    <t>SANDEEP CHAKRABORTY</t>
+  </si>
+  <si>
+    <t>TA2</t>
+  </si>
+  <si>
+    <t>SJT205</t>
+  </si>
+  <si>
+    <t>ARPAN KUMAR NAYAK</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>ANUSHA P T</t>
+  </si>
+  <si>
+    <t>BALAKRISHNAN S</t>
+  </si>
+  <si>
+    <t>LEEMA ROSE VIANNIE</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>SJT202</t>
+  </si>
+  <si>
+    <t>LAXMI NARAYAN TRIPATHI</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TARUN</t>
+  </si>
+  <si>
+    <t>SURESH KUMAR VANDRANGI</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>UMA MAHENDRA KUMAR K</t>
+  </si>
+  <si>
+    <t>TT404</t>
+  </si>
+  <si>
+    <t>SATHYA SWAROOP N.R</t>
+  </si>
+  <si>
+    <t>TD1</t>
+  </si>
+  <si>
+    <t>KURAGANTI VASU</t>
+  </si>
+  <si>
+    <t>DHANOJ GUPTA</t>
+  </si>
+  <si>
+    <t>JAGADEESH SURE</t>
+  </si>
+  <si>
+    <t>TD2</t>
+  </si>
+  <si>
+    <t>SAMIR RANJAN MEHER</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>ABHISHEK KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>DHRITIMAN GUPTA</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>RAVI SHANKER BABU</t>
+  </si>
+  <si>
+    <t>TG1</t>
+  </si>
+  <si>
+    <t>SHOBANA M K</t>
+  </si>
+  <si>
+    <t>SUDIPTA SAHA</t>
+  </si>
+  <si>
+    <t>USHA RANI M</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2152"/>
+  <dimension ref="A1:G2146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G339"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G324" sqref="G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -7862,84 +7955,84 @@
       </c>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="312" spans="1:7" ht="14.25" customHeight="1">
       <c r="A312" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F312" s="6" t="s">
-        <v>67</v>
+      <c r="F312" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A313" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F313" s="6" t="s">
-        <v>67</v>
+      <c r="F313" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A314" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E314" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C314" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="F314" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A315" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E315" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E315" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>79</v>
@@ -7948,127 +8041,127 @@
     </row>
     <row r="316" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A316" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A317" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D317" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A318" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E317" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F317" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G317" s="1"/>
-    </row>
-    <row r="318" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A318" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F318" s="1" t="s">
+      <c r="E318" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F318" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A319" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E319" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F319" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F319" s="6" t="s">
         <v>209</v>
       </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A320" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A321" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G321" s="1"/>
     </row>
@@ -8076,20 +8169,20 @@
       <c r="A322" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B322" s="7" t="s">
-        <v>250</v>
+      <c r="B322" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -8097,62 +8190,62 @@
       <c r="A323" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C323" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C323" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D323" s="6" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A324" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B324" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A325" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="G325" s="1"/>
     </row>
@@ -8164,13 +8257,13 @@
         <v>257</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>67</v>
@@ -8188,10 +8281,10 @@
         <v>28</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F327" s="6" t="s">
         <v>67</v>
@@ -8206,16 +8299,16 @@
         <v>257</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E328" s="6" t="s">
         <v>253</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G328" s="1"/>
     </row>
@@ -8227,13 +8320,13 @@
         <v>257</v>
       </c>
       <c r="C329" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E329" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="F329" s="6" t="s">
         <v>79</v>
@@ -8242,85 +8335,85 @@
     </row>
     <row r="330" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A330" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A331" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A332" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A333" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G333" s="1"/>
     </row>
@@ -8332,10 +8425,10 @@
         <v>262</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>258</v>
@@ -8353,16 +8446,16 @@
         <v>262</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G335" s="1"/>
     </row>
@@ -8374,16 +8467,16 @@
         <v>262</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G336" s="1"/>
     </row>
@@ -8395,16 +8488,16 @@
         <v>262</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G337" s="1"/>
     </row>
@@ -8416,13 +8509,13 @@
         <v>262</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F338" s="6" t="s">
         <v>79</v>
@@ -8437,10 +8530,10 @@
         <v>262</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>259</v>
@@ -8452,43 +8545,43 @@
     </row>
     <row r="340" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A340" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A341" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G341" s="1"/>
     </row>
@@ -8500,16 +8593,16 @@
         <v>267</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G342" s="1"/>
     </row>
@@ -8521,16 +8614,16 @@
         <v>267</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G343" s="1"/>
     </row>
@@ -8542,16 +8635,16 @@
         <v>267</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="E344" s="6" t="s">
         <v>265</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G344" s="1"/>
     </row>
@@ -8563,16 +8656,16 @@
         <v>267</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G345" s="1"/>
     </row>
@@ -8584,16 +8677,16 @@
         <v>267</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E346" s="6" t="s">
         <v>264</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G346" s="1"/>
     </row>
@@ -8605,10 +8698,10 @@
         <v>267</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E347" s="6" t="s">
         <v>263</v>
@@ -8620,347 +8713,527 @@
     </row>
     <row r="348" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A348" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A349" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A350" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A351" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A352" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E352" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A353" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E353" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F353" s="6" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A354" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C354" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D354" s="6" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A355" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A356" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A357" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D357" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A358" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A359" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F359" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A360" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E357" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G357" s="1"/>
-    </row>
-    <row r="358" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-    </row>
-    <row r="359" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-    </row>
-    <row r="360" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="1"/>
+      <c r="E360" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="1"/>
+    <row r="361" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A361" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F361" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="1"/>
+    <row r="362" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A362" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="1"/>
+    <row r="363" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A363" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="1"/>
+    <row r="364" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A364" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="1"/>
+    <row r="365" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A365" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E365" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="1"/>
+    <row r="366" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A366" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="1"/>
+    <row r="367" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A367" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="1"/>
+    <row r="368" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A368" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E368" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="1"/>
+    <row r="369" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A369" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E369" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="1"/>
+    <row r="370" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A370" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="1"/>
+    <row r="371" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A371" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E371" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F371" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="1"/>
+    <row r="372" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A372" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E372" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" ht="14.25" customHeight="1">
@@ -24928,60 +25201,6 @@
       <c r="E2146" s="2"/>
       <c r="F2146" s="1"/>
       <c r="G2146" s="1"/>
-    </row>
-    <row r="2147" spans="1:7" ht="14">
-      <c r="A2147" s="1"/>
-      <c r="B2147" s="1"/>
-      <c r="C2147" s="1"/>
-      <c r="D2147" s="2"/>
-      <c r="E2147" s="2"/>
-      <c r="F2147" s="1"/>
-      <c r="G2147" s="1"/>
-    </row>
-    <row r="2148" spans="1:7" ht="14">
-      <c r="A2148" s="1"/>
-      <c r="B2148" s="1"/>
-      <c r="C2148" s="1"/>
-      <c r="D2148" s="2"/>
-      <c r="E2148" s="2"/>
-      <c r="F2148" s="1"/>
-      <c r="G2148" s="1"/>
-    </row>
-    <row r="2149" spans="1:7" ht="14">
-      <c r="A2149" s="1"/>
-      <c r="B2149" s="1"/>
-      <c r="C2149" s="1"/>
-      <c r="D2149" s="2"/>
-      <c r="E2149" s="2"/>
-      <c r="F2149" s="1"/>
-      <c r="G2149" s="1"/>
-    </row>
-    <row r="2150" spans="1:7" ht="14">
-      <c r="A2150" s="1"/>
-      <c r="B2150" s="1"/>
-      <c r="C2150" s="1"/>
-      <c r="D2150" s="2"/>
-      <c r="E2150" s="2"/>
-      <c r="F2150" s="1"/>
-      <c r="G2150" s="1"/>
-    </row>
-    <row r="2151" spans="1:7" ht="14">
-      <c r="A2151" s="1"/>
-      <c r="B2151" s="1"/>
-      <c r="C2151" s="1"/>
-      <c r="D2151" s="2"/>
-      <c r="E2151" s="2"/>
-      <c r="F2151" s="1"/>
-      <c r="G2151" s="1"/>
-    </row>
-    <row r="2152" spans="1:7" ht="14">
-      <c r="A2152" s="1"/>
-      <c r="B2152" s="1"/>
-      <c r="C2152" s="1"/>
-      <c r="D2152" s="2"/>
-      <c r="E2152" s="2"/>
-      <c r="F2152" s="1"/>
-      <c r="G2152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4197ADC-D24B-4D1C-A4A7-078A04B7C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98B327-DBAD-4626-8993-7DBC4F945D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2070" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="2520" windowWidth="14400" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="321">
   <si>
     <t>CODE</t>
   </si>
@@ -471,6 +471,522 @@
   <si>
     <t>SS</t>
   </si>
+  <si>
+    <t>SJT407</t>
+  </si>
+  <si>
+    <t>AJU D</t>
+  </si>
+  <si>
+    <t>ANAND M</t>
+  </si>
+  <si>
+    <t>MURALI S</t>
+  </si>
+  <si>
+    <t>SENDHIL KUMAR K.S</t>
+  </si>
+  <si>
+    <t>RAMANI S</t>
+  </si>
+  <si>
+    <t>SIVA SHANMUGAM G</t>
+  </si>
+  <si>
+    <t>LAVANYA K</t>
+  </si>
+  <si>
+    <t>CHANDRA MOHAN B</t>
+  </si>
+  <si>
+    <t>ANIL KUMAR K</t>
+  </si>
+  <si>
+    <t>KATHIRAVAN S</t>
+  </si>
+  <si>
+    <t>RAJARAJAN G</t>
+  </si>
+  <si>
+    <t>SELVI M</t>
+  </si>
+  <si>
+    <t>RUBY D</t>
+  </si>
+  <si>
+    <t>SJT824</t>
+  </si>
+  <si>
+    <t>KUMARESAN A</t>
+  </si>
+  <si>
+    <t>SJT825</t>
+  </si>
+  <si>
+    <t>RAJA S P</t>
+  </si>
+  <si>
+    <t>MB224</t>
+  </si>
+  <si>
+    <t>PREETHA EVANGELINE D</t>
+  </si>
+  <si>
+    <t>SJT801</t>
+  </si>
+  <si>
+    <t>SJT807</t>
+  </si>
+  <si>
+    <t>PRAKASH G</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Information Security Management</t>
+  </si>
+  <si>
+    <t>CSE3502</t>
+  </si>
+  <si>
+    <t>SJT418</t>
+  </si>
+  <si>
+    <t>SJT416</t>
+  </si>
+  <si>
+    <t>L19+L20</t>
+  </si>
+  <si>
+    <t>SJT318</t>
+  </si>
+  <si>
+    <t>L29+L30</t>
+  </si>
+  <si>
+    <t>L35+L36</t>
+  </si>
+  <si>
+    <t>L53+L54</t>
+  </si>
+  <si>
+    <t>L7+L8</t>
+  </si>
+  <si>
+    <t>L9+L10</t>
+  </si>
+  <si>
+    <t>SHILPI GUPTA</t>
+  </si>
+  <si>
+    <t>GAURAV SUSHANT</t>
+  </si>
+  <si>
+    <t>SJT402</t>
+  </si>
+  <si>
+    <t>SHANTANU SHANDILYA</t>
+  </si>
+  <si>
+    <t>MB119</t>
+  </si>
+  <si>
+    <t>SABYASACHI MISHRA</t>
+  </si>
+  <si>
+    <t>MB214</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>TT523</t>
+  </si>
+  <si>
+    <t>SJT404</t>
+  </si>
+  <si>
+    <t>ESP1001</t>
+  </si>
+  <si>
+    <t>ESPANOL FUNDAMENTAL</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ESP1002</t>
+  </si>
+  <si>
+    <t>ESP1003</t>
+  </si>
+  <si>
+    <t>ESP1004</t>
+  </si>
+  <si>
+    <t>ESP1005</t>
+  </si>
+  <si>
+    <t>ESP1006</t>
+  </si>
+  <si>
+    <t>ESP1007</t>
+  </si>
+  <si>
+    <t>ESP1008</t>
+  </si>
+  <si>
+    <t>ESP1009</t>
+  </si>
+  <si>
+    <t>ESP1010</t>
+  </si>
+  <si>
+    <t>ESP1011</t>
+  </si>
+  <si>
+    <t>ESP1012</t>
+  </si>
+  <si>
+    <t>SJT301</t>
+  </si>
+  <si>
+    <t>ARATI KUMARI</t>
+  </si>
+  <si>
+    <t>TT201</t>
+  </si>
+  <si>
+    <t>ADAIKALAM ARULANANDAM</t>
+  </si>
+  <si>
+    <t>DHANANJAY KUMAR</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>PRP522</t>
+  </si>
+  <si>
+    <t>SJT205</t>
+  </si>
+  <si>
+    <t>GER1001</t>
+  </si>
+  <si>
+    <t>Grundstufe Deutsch</t>
+  </si>
+  <si>
+    <t>TT206</t>
+  </si>
+  <si>
+    <t>VANDANA SHARMA</t>
+  </si>
+  <si>
+    <t>TT531A</t>
+  </si>
+  <si>
+    <t>SMVG11</t>
+  </si>
+  <si>
+    <t>ANTOINETTE DANIEL</t>
+  </si>
+  <si>
+    <t>SJT401</t>
+  </si>
+  <si>
+    <t>CALAIVANANE R</t>
+  </si>
+  <si>
+    <t>MB309A</t>
+  </si>
+  <si>
+    <t>COUMARAN G</t>
+  </si>
+  <si>
+    <t>CDMM405</t>
+  </si>
+  <si>
+    <t>MALATHY O</t>
+  </si>
+  <si>
+    <t>SMV220</t>
+  </si>
+  <si>
+    <t>TT434</t>
+  </si>
+  <si>
+    <t>SMV218</t>
+  </si>
+  <si>
+    <t>FRE1001</t>
+  </si>
+  <si>
+    <t>Francais quotidien</t>
+  </si>
+  <si>
+    <t>TT204</t>
+  </si>
+  <si>
+    <t>KHANJAN</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>TT305</t>
+  </si>
+  <si>
+    <t>Japanese for Beginners</t>
+  </si>
+  <si>
+    <t>JAP1001</t>
+  </si>
+  <si>
+    <t>TAA1</t>
+  </si>
+  <si>
+    <t>PREMKARTIKKUMAR S R</t>
+  </si>
+  <si>
+    <t>SJT315</t>
+  </si>
+  <si>
+    <t>RANJITHA J</t>
+  </si>
+  <si>
+    <t>SJT323</t>
+  </si>
+  <si>
+    <t>GAYATHRI V</t>
+  </si>
+  <si>
+    <t>VIJAYALAKSHMI S</t>
+  </si>
+  <si>
+    <t>TT619</t>
+  </si>
+  <si>
+    <t>ASHISH KUMAR</t>
+  </si>
+  <si>
+    <t>TAA2</t>
+  </si>
+  <si>
+    <t>SMV102</t>
+  </si>
+  <si>
+    <t>KRISHNA S</t>
+  </si>
+  <si>
+    <t>TBB2</t>
+  </si>
+  <si>
+    <t>RAHUL SINGH SIKARWAR</t>
+  </si>
+  <si>
+    <t>VELU M</t>
+  </si>
+  <si>
+    <t>SIREESHA TAMADA</t>
+  </si>
+  <si>
+    <t>TT404</t>
+  </si>
+  <si>
+    <t>BABU S</t>
+  </si>
+  <si>
+    <t>TCC1</t>
+  </si>
+  <si>
+    <t>JITENJAYA PRADHAN</t>
+  </si>
+  <si>
+    <t>SJT302</t>
+  </si>
+  <si>
+    <t>RAJESH KANNA</t>
+  </si>
+  <si>
+    <t>SJT303</t>
+  </si>
+  <si>
+    <t>ASHISH ALEX SAM</t>
+  </si>
+  <si>
+    <t>ARAVIND RAJ S</t>
+  </si>
+  <si>
+    <t>MB219</t>
+  </si>
+  <si>
+    <t>ANOOP KUMAR</t>
+  </si>
+  <si>
+    <t>GDN107</t>
+  </si>
+  <si>
+    <t>DEEPAK KUMAR BISWAL</t>
+  </si>
+  <si>
+    <t>TCC2</t>
+  </si>
+  <si>
+    <t>SRIDHAR V G</t>
+  </si>
+  <si>
+    <t>RAGHURAMAN D R S</t>
+  </si>
+  <si>
+    <t>TDD2</t>
+  </si>
+  <si>
+    <t>Urban Planning</t>
+  </si>
+  <si>
+    <t>CLE1016</t>
+  </si>
+  <si>
+    <t>MGT1022</t>
+  </si>
+  <si>
+    <t>Lean Start-up Management</t>
+  </si>
+  <si>
+    <t>CDMM403</t>
+  </si>
+  <si>
+    <t>MEENA T</t>
+  </si>
+  <si>
+    <t>CDMM104</t>
+  </si>
+  <si>
+    <t>JAYAPRAKASH J</t>
+  </si>
+  <si>
+    <t>CDMM404</t>
+  </si>
+  <si>
+    <t>ABDUL RAHIM A</t>
+  </si>
+  <si>
+    <t>CDMM103</t>
+  </si>
+  <si>
+    <t>VISUVASAM J</t>
+  </si>
+  <si>
+    <t>NAGARAJA RAO A</t>
+  </si>
+  <si>
+    <t>SJT403</t>
+  </si>
+  <si>
+    <t>GERALDINE BESSIE AMALI D</t>
+  </si>
+  <si>
+    <t>CSE2010</t>
+  </si>
+  <si>
+    <t>Advanced C</t>
+  </si>
+  <si>
+    <t>HUM1022</t>
+  </si>
+  <si>
+    <t>Psychology in Everyday Life</t>
+  </si>
+  <si>
+    <t>Tony P Jose</t>
+  </si>
+  <si>
+    <t>CDMM105</t>
+  </si>
+  <si>
+    <t>AISWARYA S</t>
+  </si>
+  <si>
+    <t>MEE1001</t>
+  </si>
+  <si>
+    <t>Engineering Drawing</t>
+  </si>
+  <si>
+    <t>ILAYARAJA V</t>
+  </si>
+  <si>
+    <t>Cryptography and Network Security</t>
+  </si>
+  <si>
+    <t>CSE3044</t>
+  </si>
+  <si>
+    <t>MB212</t>
+  </si>
+  <si>
+    <t>VENUGOPAL P.</t>
+  </si>
+  <si>
+    <t>MB218</t>
+  </si>
+  <si>
+    <t>GANGATHARAN C</t>
+  </si>
+  <si>
+    <t>Principles of Marketing</t>
+  </si>
+  <si>
+    <t>MGT1036</t>
+  </si>
+  <si>
+    <t>A1+TA1</t>
+  </si>
+  <si>
+    <t>MADHU VISWANATHAM V</t>
+  </si>
+  <si>
+    <t>JAYAKUMAR S</t>
+  </si>
+  <si>
+    <t>MANOOV R</t>
+  </si>
+  <si>
+    <t>JOTHI K R</t>
+  </si>
+  <si>
+    <t>ARJUN R</t>
+  </si>
+  <si>
+    <t>SJT415</t>
+  </si>
+  <si>
+    <t>VIJESH JOE C</t>
+  </si>
+  <si>
+    <t>A2+TA2</t>
+  </si>
+  <si>
+    <t>SJT311</t>
+  </si>
+  <si>
+    <t>SJT409</t>
+  </si>
+  <si>
+    <t>CHANDRU VIGNESH C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain and cryptocurrency tech </t>
+  </si>
+  <si>
+    <t>CSE1006</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +1049,7 @@
       <name val="Cabin"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +1062,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -585,12 +1107,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF095988"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF095988"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF095988"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF095988"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -621,6 +1188,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,8 +1548,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267:B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -3968,1327 +4553,3379 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="132" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="133" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="136" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="137" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="139" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="140" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="146" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="147" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="150" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="151" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="154" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="155" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="156" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="157" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="158" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="159" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G159" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="160" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="161" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G161" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="162" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="163" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="165" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="1"/>
+      <c r="A199" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G199" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="200" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="1"/>
+      <c r="A200" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="201" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="1"/>
+      <c r="A201" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G201" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="202" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="1"/>
+      <c r="A202" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G202" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="1"/>
+      <c r="A203" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G203" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="204" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="1"/>
+      <c r="A204" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G204" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="205" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="1"/>
+      <c r="A205" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G205" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="206" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="1"/>
+      <c r="A206" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G206" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="1"/>
+      <c r="A207" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G207" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="208" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="1"/>
+      <c r="A208" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G208" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="209" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="1"/>
+      <c r="A209" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G209" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="210" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="1"/>
+      <c r="A210" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G210" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="211" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="1"/>
+      <c r="A211" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G211" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="1"/>
+      <c r="A212" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G212" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="213" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-      <c r="G213" s="1"/>
+      <c r="A213" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G213" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="1"/>
+      <c r="A214" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G214" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="215" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6"/>
-      <c r="G215" s="1"/>
+      <c r="A215" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G215" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="1"/>
+      <c r="A216" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G216" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="1"/>
+      <c r="A217" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G217" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="1"/>
+      <c r="A218" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="1"/>
+      <c r="A219" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G219" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="220" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="1"/>
+      <c r="A220" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G220" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="221" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="1"/>
+      <c r="A221" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="1"/>
+      <c r="A222" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G222" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="223" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
-      <c r="G223" s="1"/>
+      <c r="A223" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G223" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-      <c r="F224" s="6"/>
-      <c r="G224" s="1"/>
+      <c r="A224" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G224" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="225" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="1"/>
+      <c r="A225" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G225" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="1"/>
+      <c r="A226" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G226" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="227" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="1"/>
+      <c r="A227" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G227" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="228" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="1"/>
+      <c r="A228" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G228" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="229" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="1"/>
+      <c r="A229" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G229" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="230" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
-      <c r="G230" s="1"/>
+      <c r="A230" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G230" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="231" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="1"/>
+      <c r="A231" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G231" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="232" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="1"/>
+      <c r="A232" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G232" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6"/>
-      <c r="G233" s="1"/>
+      <c r="A233" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
-      <c r="G234" s="1"/>
+      <c r="A234" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G234" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="235" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
-      <c r="G235" s="1"/>
+      <c r="A235" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G235" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="236" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-      <c r="G236" s="1"/>
+      <c r="A236" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G236" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="237" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
-      <c r="G237" s="1"/>
+      <c r="A237" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G237" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="1"/>
+      <c r="A238" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G238" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="239" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
-      <c r="G239" s="1"/>
+      <c r="A239" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G239" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6"/>
-      <c r="G240" s="1"/>
+      <c r="A240" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="241" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="1"/>
+      <c r="A241" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G241" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="242" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="1"/>
+      <c r="A242" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="243" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="1"/>
+      <c r="A243" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G243" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="244" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="1"/>
+      <c r="A244" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G244" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="245" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="1"/>
+      <c r="A245" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G245" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="246" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="1"/>
+      <c r="A246" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G246" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="247" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-      <c r="G247" s="1"/>
+      <c r="A247" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G247" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="248" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="1"/>
+      <c r="A248" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G248" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="249" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
-      <c r="G249" s="1"/>
+      <c r="A249" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G249" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="250" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="1"/>
+      <c r="A250" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G250" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="251" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="6"/>
-      <c r="G251" s="1"/>
+      <c r="A251" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G251" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="252" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="6"/>
-      <c r="G252" s="1"/>
+      <c r="A252" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G252" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="253" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-      <c r="G253" s="1"/>
+      <c r="A253" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G253" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="254" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="6"/>
-      <c r="G254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G254" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="255" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G255" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="G256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G256" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G257" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G258" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
+      <c r="A259" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="F259" s="6"/>
-      <c r="G259" s="1"/>
+      <c r="G259" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="260" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
+      <c r="A260" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>286</v>
+      </c>
       <c r="F260" s="6"/>
-      <c r="G260" s="1"/>
+      <c r="G260" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="261" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
+      <c r="A261" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="F261" s="6"/>
-      <c r="G261" s="1"/>
+      <c r="G261" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="262" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G262" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="263" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="1"/>
+      <c r="A263" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G263" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="264" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="1"/>
+      <c r="A264" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E264" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G264" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="265" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
-      <c r="G265" s="1"/>
+      <c r="A265" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E265" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G265" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="266" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="1"/>
+      <c r="A266" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E266" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G266" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="267" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="1"/>
+      <c r="A267" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G267" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="1"/>
+      <c r="A268" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G268" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="269" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="1"/>
+      <c r="A269" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G269" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="270" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="1"/>
+      <c r="A270" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G270" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="271" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="1"/>
+      <c r="A271" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G271" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="272" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="1"/>
+      <c r="A272" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G272" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="273" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="1"/>
+      <c r="A273" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G273" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="1"/>
+      <c r="A274" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G274" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="1"/>
+      <c r="A275" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G275" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="276" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="1"/>
+      <c r="A276" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G276" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="277" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G277" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="278" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A278" s="1"/>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98B327-DBAD-4626-8993-7DBC4F945D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06605511-0FB5-4ADF-9D59-379FB102E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2520" windowWidth="14400" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="317">
   <si>
     <t>CODE</t>
   </si>
@@ -619,39 +619,6 @@
     <t>TH</t>
   </si>
   <si>
-    <t>ESP1002</t>
-  </si>
-  <si>
-    <t>ESP1003</t>
-  </si>
-  <si>
-    <t>ESP1004</t>
-  </si>
-  <si>
-    <t>ESP1005</t>
-  </si>
-  <si>
-    <t>ESP1006</t>
-  </si>
-  <si>
-    <t>ESP1007</t>
-  </si>
-  <si>
-    <t>ESP1008</t>
-  </si>
-  <si>
-    <t>ESP1009</t>
-  </si>
-  <si>
-    <t>ESP1010</t>
-  </si>
-  <si>
-    <t>ESP1011</t>
-  </si>
-  <si>
-    <t>ESP1012</t>
-  </si>
-  <si>
     <t>SJT301</t>
   </si>
   <si>
@@ -987,12 +954,33 @@
   <si>
     <t>CSE1006</t>
   </si>
+  <si>
+    <t>L23+L24</t>
+  </si>
+  <si>
+    <t>MOHANA CM</t>
+  </si>
+  <si>
+    <t>SANTHI H</t>
+  </si>
+  <si>
+    <t>SASIKALA .R</t>
+  </si>
+  <si>
+    <t>SALEEM DURAI M.A</t>
+  </si>
+  <si>
+    <t>CSE1004</t>
+  </si>
+  <si>
+    <t>Network and Communication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1047,6 +1035,11 @@
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cabin"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212529"/>
+      <name val="CustomFont"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1157,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1205,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,8 +1544,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:B277"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6141,7 +6137,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A200" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>196</v>
@@ -6164,7 +6160,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A201" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>196</v>
@@ -6187,7 +6183,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A202" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>196</v>
@@ -6210,7 +6206,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A203" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>196</v>
@@ -6233,7 +6229,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A204" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>196</v>
@@ -6256,7 +6252,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A205" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>196</v>
@@ -6279,7 +6275,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A206" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>196</v>
@@ -6302,7 +6298,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A207" s="9" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>196</v>
@@ -6325,7 +6321,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A208" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>196</v>
@@ -6348,7 +6344,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A209" s="9" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>196</v>
@@ -6371,7 +6367,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A210" s="9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>196</v>
@@ -6394,19 +6390,19 @@
     </row>
     <row r="211" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A211" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>197</v>
@@ -6417,19 +6413,19 @@
     </row>
     <row r="212" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A212" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>197</v>
@@ -6440,10 +6436,10 @@
     </row>
     <row r="213" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A213" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>34</v>
@@ -6452,7 +6448,7 @@
         <v>61</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>197</v>
@@ -6463,19 +6459,19 @@
     </row>
     <row r="214" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A214" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>197</v>
@@ -6486,19 +6482,19 @@
     </row>
     <row r="215" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A215" s="9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>197</v>
@@ -6509,19 +6505,19 @@
     </row>
     <row r="216" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A216" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>197</v>
@@ -6532,19 +6528,19 @@
     </row>
     <row r="217" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A217" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>197</v>
@@ -6555,19 +6551,19 @@
     </row>
     <row r="218" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A218" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>197</v>
@@ -6578,19 +6574,19 @@
     </row>
     <row r="219" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A219" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>192</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>197</v>
@@ -6601,10 +6597,10 @@
     </row>
     <row r="220" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A220" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>192</v>
@@ -6613,7 +6609,7 @@
         <v>81</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>197</v>
@@ -6624,19 +6620,19 @@
     </row>
     <row r="221" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A221" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>197</v>
@@ -6647,19 +6643,19 @@
     </row>
     <row r="222" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A222" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>197</v>
@@ -6670,19 +6666,19 @@
     </row>
     <row r="223" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A223" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>197</v>
@@ -6693,19 +6689,19 @@
     </row>
     <row r="224" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A224" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>197</v>
@@ -6716,19 +6712,19 @@
     </row>
     <row r="225" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A225" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>197</v>
@@ -6739,19 +6735,19 @@
     </row>
     <row r="226" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A226" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>197</v>
@@ -6762,19 +6758,19 @@
     </row>
     <row r="227" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A227" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>197</v>
@@ -6785,19 +6781,19 @@
     </row>
     <row r="228" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A228" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>197</v>
@@ -6808,19 +6804,19 @@
     </row>
     <row r="229" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A229" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>197</v>
@@ -6831,19 +6827,19 @@
     </row>
     <row r="230" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A230" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>197</v>
@@ -6854,19 +6850,19 @@
     </row>
     <row r="231" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A231" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>197</v>
@@ -6877,19 +6873,19 @@
     </row>
     <row r="232" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A232" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>197</v>
@@ -6900,19 +6896,19 @@
     </row>
     <row r="233" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A233" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>197</v>
@@ -6923,19 +6919,19 @@
     </row>
     <row r="234" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A234" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>197</v>
@@ -6946,19 +6942,19 @@
     </row>
     <row r="235" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A235" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>197</v>
@@ -6969,19 +6965,19 @@
     </row>
     <row r="236" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A236" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>197</v>
@@ -6992,19 +6988,19 @@
     </row>
     <row r="237" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A237" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>197</v>
@@ -7015,19 +7011,19 @@
     </row>
     <row r="238" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A238" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>197</v>
@@ -7038,19 +7034,19 @@
     </row>
     <row r="239" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A239" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>197</v>
@@ -7061,19 +7057,19 @@
     </row>
     <row r="240" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A240" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>197</v>
@@ -7084,19 +7080,19 @@
     </row>
     <row r="241" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A241" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>197</v>
@@ -7107,19 +7103,19 @@
     </row>
     <row r="242" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A242" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>197</v>
@@ -7130,19 +7126,19 @@
     </row>
     <row r="243" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A243" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>191</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>197</v>
@@ -7153,19 +7149,19 @@
     </row>
     <row r="244" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A244" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>197</v>
@@ -7176,19 +7172,19 @@
     </row>
     <row r="245" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A245" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>197</v>
@@ -7199,19 +7195,19 @@
     </row>
     <row r="246" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A246" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>197</v>
@@ -7222,19 +7218,19 @@
     </row>
     <row r="247" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A247" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>197</v>
@@ -7245,19 +7241,19 @@
     </row>
     <row r="248" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A248" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F248" s="6" t="s">
         <v>197</v>
@@ -7268,19 +7264,19 @@
     </row>
     <row r="249" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A249" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>191</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>197</v>
@@ -7291,19 +7287,19 @@
     </row>
     <row r="250" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A250" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>197</v>
@@ -7314,19 +7310,19 @@
     </row>
     <row r="251" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A251" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>197</v>
@@ -7337,19 +7333,19 @@
     </row>
     <row r="252" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A252" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>197</v>
@@ -7360,19 +7356,19 @@
     </row>
     <row r="253" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A253" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>167</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>197</v>
@@ -7383,19 +7379,19 @@
     </row>
     <row r="254" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A254" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>197</v>
@@ -7406,19 +7402,19 @@
     </row>
     <row r="255" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A255" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>197</v>
@@ -7429,19 +7425,19 @@
     </row>
     <row r="256" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A256" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>197</v>
@@ -7452,19 +7448,19 @@
     </row>
     <row r="257" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A257" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>197</v>
@@ -7475,19 +7471,19 @@
     </row>
     <row r="258" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A258" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>41</v>
@@ -7498,19 +7494,19 @@
     </row>
     <row r="259" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A259" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="1">
@@ -7519,19 +7515,19 @@
     </row>
     <row r="260" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A260" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="1">
@@ -7540,19 +7536,19 @@
     </row>
     <row r="261" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A261" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F261" s="6"/>
       <c r="G261" s="1">
@@ -7561,10 +7557,10 @@
     </row>
     <row r="262" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A262" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>172</v>
@@ -7573,7 +7569,7 @@
         <v>142</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>197</v>
@@ -7584,19 +7580,19 @@
     </row>
     <row r="263" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A263" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>41</v>
@@ -7607,10 +7603,10 @@
     </row>
     <row r="264" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A264" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C264" s="12" t="s">
         <v>11</v>
@@ -7619,7 +7615,7 @@
         <v>78</v>
       </c>
       <c r="E264" s="14" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>197</v>
@@ -7630,19 +7626,19 @@
     </row>
     <row r="265" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A265" s="9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C265" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E265" s="14" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>197</v>
@@ -7653,19 +7649,19 @@
     </row>
     <row r="266" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A266" s="9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>197</v>
@@ -7676,19 +7672,19 @@
     </row>
     <row r="267" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A267" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>197</v>
@@ -7699,19 +7695,19 @@
     </row>
     <row r="268" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A268" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>197</v>
@@ -7722,19 +7718,19 @@
     </row>
     <row r="269" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A269" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D269" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F269" s="6" t="s">
         <v>197</v>
@@ -7745,19 +7741,19 @@
     </row>
     <row r="270" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A270" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>197</v>
@@ -7768,19 +7764,19 @@
     </row>
     <row r="271" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A271" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F271" s="6" t="s">
         <v>197</v>
@@ -7791,19 +7787,19 @@
     </row>
     <row r="272" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A272" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>197</v>
@@ -7814,19 +7810,19 @@
     </row>
     <row r="273" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A273" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>197</v>
@@ -7837,19 +7833,19 @@
     </row>
     <row r="274" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A274" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F274" s="6" t="s">
         <v>197</v>
@@ -7860,19 +7856,19 @@
     </row>
     <row r="275" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A275" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F275" s="6" t="s">
         <v>197</v>
@@ -7883,19 +7879,19 @@
     </row>
     <row r="276" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A276" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F276" s="6" t="s">
         <v>197</v>
@@ -7906,19 +7902,19 @@
     </row>
     <row r="277" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A277" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D277" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>197</v>
@@ -7928,112 +7924,280 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="1"/>
+      <c r="A278" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C278" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E278" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F278" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G278" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="1"/>
+      <c r="A279" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E279" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F279" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="1"/>
+      <c r="A280" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E280" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F280" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G280" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="1"/>
+      <c r="A281" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E281" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F281" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="1"/>
+      <c r="A282" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C282" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E282" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F282" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G282" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="1"/>
+      <c r="A283" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D283" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E283" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F283" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="6"/>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="1"/>
+      <c r="A284" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E284" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F284" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G284" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="285" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="1"/>
+      <c r="A285" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C285" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F285" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G285" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="286" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="1"/>
+      <c r="A286" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E286" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F286" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G286" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="287" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="1"/>
+      <c r="A287" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E287" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F287" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G287" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="288" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-      <c r="G288" s="1"/>
+      <c r="A288" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E288" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F288" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G288" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="289" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="1"/>
+      <c r="A289" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C289" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E289" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F289" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G289" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="290" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A290" s="1"/>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06605511-0FB5-4ADF-9D59-379FB102E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955189F7-5CD4-49FC-ACC0-C3B60D8B6BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="4070" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="388">
   <si>
     <t>CODE</t>
   </si>
@@ -975,6 +975,219 @@
   <si>
     <t>Network and Communication</t>
   </si>
+  <si>
+    <t>TT237</t>
+  </si>
+  <si>
+    <t>ANTONY XAVIER GLITTAS X</t>
+  </si>
+  <si>
+    <t>SATHEESH KUMAR S</t>
+  </si>
+  <si>
+    <t>ABDUL MAJEED K K</t>
+  </si>
+  <si>
+    <t>RAJEEV PANKAJ NELAPATI</t>
+  </si>
+  <si>
+    <t>VIKAS VIJAYVARGIYA</t>
+  </si>
+  <si>
+    <t>RAVI S</t>
+  </si>
+  <si>
+    <t>JAYAKRISHNAN P</t>
+  </si>
+  <si>
+    <t>L5+L6</t>
+  </si>
+  <si>
+    <t>TT301</t>
+  </si>
+  <si>
+    <t>TT303</t>
+  </si>
+  <si>
+    <t>TT304</t>
+  </si>
+  <si>
+    <t>TT504</t>
+  </si>
+  <si>
+    <t>TT524</t>
+  </si>
+  <si>
+    <t>ECE3002</t>
+  </si>
+  <si>
+    <t>VLSI System Design</t>
+  </si>
+  <si>
+    <t>L1+L2</t>
+  </si>
+  <si>
+    <t>SJT203</t>
+  </si>
+  <si>
+    <t>PADMINI T N</t>
+  </si>
+  <si>
+    <t>Microcontroller and its Applications</t>
+  </si>
+  <si>
+    <t>ECE3003</t>
+  </si>
+  <si>
+    <t>TT232</t>
+  </si>
+  <si>
+    <t>RAJESH KUMAR M</t>
+  </si>
+  <si>
+    <t>TT530A</t>
+  </si>
+  <si>
+    <t>ECE3005</t>
+  </si>
+  <si>
+    <t>Digital Image Processing</t>
+  </si>
+  <si>
+    <t>SURESH KUMAR T R</t>
+  </si>
+  <si>
+    <t>ECE3010</t>
+  </si>
+  <si>
+    <t>Antenna and Wave Propogation</t>
+  </si>
+  <si>
+    <t>PRP108</t>
+  </si>
+  <si>
+    <t>SUJATHA R</t>
+  </si>
+  <si>
+    <t>SRIHARIPRIYA K C</t>
+  </si>
+  <si>
+    <t>APARNA MOHANTY</t>
+  </si>
+  <si>
+    <t>KONGUVEL E</t>
+  </si>
+  <si>
+    <t>BISWAJIT DWIVEDY</t>
+  </si>
+  <si>
+    <t>PRADHEEP T</t>
+  </si>
+  <si>
+    <t>TT530</t>
+  </si>
+  <si>
+    <t>IoT Domain Analyst</t>
+  </si>
+  <si>
+    <t>ECE3502</t>
+  </si>
+  <si>
+    <t>THANIKAISELVAN V</t>
+  </si>
+  <si>
+    <t>SARAVANAN K</t>
+  </si>
+  <si>
+    <t>ECE4007</t>
+  </si>
+  <si>
+    <t>Information Theory and Coding</t>
+  </si>
+  <si>
+    <t>SHANKAR T</t>
+  </si>
+  <si>
+    <t>ECE4010</t>
+  </si>
+  <si>
+    <t>Satellite Communication</t>
+  </si>
+  <si>
+    <t>F1+TF1</t>
+  </si>
+  <si>
+    <t>TT531</t>
+  </si>
+  <si>
+    <t>BUDHADITYA BHATTACHARYYA</t>
+  </si>
+  <si>
+    <t>F2+TF2</t>
+  </si>
+  <si>
+    <t>ECE4013</t>
+  </si>
+  <si>
+    <t>TT134</t>
+  </si>
+  <si>
+    <t>RAVI KUMAR C V</t>
+  </si>
+  <si>
+    <t>ECE4009</t>
+  </si>
+  <si>
+    <t>Wirelless and Mobile Communication</t>
+  </si>
+  <si>
+    <t>PREETHA K.S</t>
+  </si>
+  <si>
+    <t>PRAKASAM P</t>
+  </si>
+  <si>
+    <t>Computer Communication</t>
+  </si>
+  <si>
+    <t>ECE4008</t>
+  </si>
+  <si>
+    <t>ZACHARIAH C ALEX</t>
+  </si>
+  <si>
+    <t>TT207</t>
+  </si>
+  <si>
+    <t>SIVASANKARAN K</t>
+  </si>
+  <si>
+    <t>Technical Answers for Real World Problems</t>
+  </si>
+  <si>
+    <t>ECE1901</t>
+  </si>
+  <si>
+    <t>TT603</t>
+  </si>
+  <si>
+    <t>SHANMUGASUNDARAM M</t>
+  </si>
+  <si>
+    <t>ECE4004</t>
+  </si>
+  <si>
+    <t>Embedded C and Linux</t>
+  </si>
+  <si>
+    <t>VAEGAE NAVEEN KUMAR</t>
+  </si>
+  <si>
+    <t>ECE3009</t>
+  </si>
+  <si>
+    <t>Neural Networks and Fuzzy Controls</t>
+  </si>
 </sst>
 </file>
 
@@ -1019,12 +1232,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1040,6 +1247,11 @@
       <sz val="7"/>
       <color rgb="FF212529"/>
       <name val="CustomFont"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212529"/>
+      <name val="OpenSans"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1148,9 +1360,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1172,34 +1384,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1542,10 +1757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2146"/>
+  <dimension ref="A1:G2136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1582,19 +1797,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1605,19 +1820,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1628,19 +1843,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1651,19 +1866,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1674,19 +1889,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1697,19 +1912,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1720,19 +1935,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1743,19 +1958,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1766,19 +1981,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1789,19 +2004,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1812,19 +2027,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1835,19 +2050,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1858,19 +2073,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1881,19 +2096,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1904,19 +2119,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1927,19 +2142,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1950,19 +2165,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1973,19 +2188,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1996,19 +2211,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2019,19 +2234,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2042,19 +2257,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2065,19 +2280,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2088,19 +2303,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2111,19 +2326,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -2134,19 +2349,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -2157,19 +2372,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -2180,19 +2395,19 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -2203,19 +2418,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2226,19 +2441,19 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -2249,19 +2464,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2272,19 +2487,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -2295,19 +2510,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2318,19 +2533,19 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2341,19 +2556,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2364,19 +2579,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2387,19 +2602,19 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2410,19 +2625,19 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2433,19 +2648,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2456,19 +2671,19 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -2479,19 +2694,19 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -2502,19 +2717,19 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2525,19 +2740,19 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -2548,19 +2763,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -2571,19 +2786,19 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -2594,19 +2809,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2617,19 +2832,19 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2640,19 +2855,19 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2663,19 +2878,19 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -2686,19 +2901,19 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -2709,19 +2924,19 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -2732,19 +2947,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -2755,19 +2970,19 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -2778,19 +2993,19 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2801,19 +3016,19 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2824,19 +3039,19 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -2847,19 +3062,19 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -2873,7 +3088,7 @@
       <c r="A58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2896,7 +3111,7 @@
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -2919,7 +3134,7 @@
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2942,7 +3157,7 @@
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -2965,7 +3180,7 @@
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -2988,7 +3203,7 @@
       <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -3011,7 +3226,7 @@
       <c r="A64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3034,7 +3249,7 @@
       <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -3057,7 +3272,7 @@
       <c r="A66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -3077,19 +3292,19 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -3100,19 +3315,19 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3123,19 +3338,19 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -3146,19 +3361,19 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -3169,19 +3384,19 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -3192,19 +3407,19 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -3215,19 +3430,19 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -3238,19 +3453,19 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3261,19 +3476,19 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -3284,19 +3499,19 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -3307,19 +3522,19 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -3330,19 +3545,19 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -3353,19 +3568,19 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -3376,19 +3591,19 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -3399,19 +3614,19 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>137</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -3422,19 +3637,19 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -3445,19 +3660,19 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -3468,19 +3683,19 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="10" t="s">
         <v>137</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -3491,19 +3706,19 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -3514,19 +3729,19 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -3537,19 +3752,19 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -3560,19 +3775,19 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="10" t="s">
         <v>137</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -3583,19 +3798,19 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="10" t="s">
         <v>137</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -3606,19 +3821,19 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -3629,19 +3844,19 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -3652,19 +3867,19 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -3675,19 +3890,19 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -3698,19 +3913,19 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -3721,19 +3936,19 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -3744,19 +3959,19 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -3767,19 +3982,19 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -3790,19 +4005,19 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -3813,19 +4028,19 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -3836,19 +4051,19 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -3859,19 +4074,19 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -3882,19 +4097,19 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -3905,19 +4120,19 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -3928,19 +4143,19 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -3951,19 +4166,19 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -3974,19 +4189,19 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -3997,19 +4212,19 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -4020,19 +4235,19 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -4043,19 +4258,19 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -4066,19 +4281,19 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -4089,19 +4304,19 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -4112,19 +4327,19 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -4135,19 +4350,19 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -4158,19 +4373,19 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -4181,19 +4396,19 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -4204,19 +4419,19 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -4227,19 +4442,19 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -4250,19 +4465,19 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -4273,19 +4488,19 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -4296,19 +4511,19 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F120" s="6" t="s">
@@ -4319,19 +4534,19 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -4342,19 +4557,19 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -4365,19 +4580,19 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -4388,19 +4603,19 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -4411,19 +4626,19 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -4434,19 +4649,19 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -4457,19 +4672,19 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -4480,19 +4695,19 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -4503,19 +4718,19 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -4526,19 +4741,19 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="10" t="s">
         <v>141</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -4555,13 +4770,13 @@
       <c r="B131" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -4578,13 +4793,13 @@
       <c r="B132" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="10" t="s">
         <v>151</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -4601,13 +4816,13 @@
       <c r="B133" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -4624,13 +4839,13 @@
       <c r="B134" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -4647,13 +4862,13 @@
       <c r="B135" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F135" s="6" t="s">
@@ -4670,13 +4885,13 @@
       <c r="B136" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -4693,13 +4908,13 @@
       <c r="B137" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -4716,13 +4931,13 @@
       <c r="B138" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -4739,13 +4954,13 @@
       <c r="B139" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="10" t="s">
         <v>158</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -4762,13 +4977,13 @@
       <c r="B140" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -4785,13 +5000,13 @@
       <c r="B141" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="10" t="s">
         <v>160</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -4808,13 +5023,13 @@
       <c r="B142" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -4831,13 +5046,13 @@
       <c r="B143" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -4854,13 +5069,13 @@
       <c r="B144" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -4877,13 +5092,13 @@
       <c r="B145" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F145" s="6" t="s">
@@ -4900,13 +5115,13 @@
       <c r="B146" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -4923,13 +5138,13 @@
       <c r="B147" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="10" t="s">
         <v>168</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -4946,13 +5161,13 @@
       <c r="B148" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -4969,13 +5184,13 @@
       <c r="B149" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -4992,13 +5207,13 @@
       <c r="B150" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F150" s="6" t="s">
@@ -5015,13 +5230,13 @@
       <c r="B151" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -5038,13 +5253,13 @@
       <c r="B152" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -5061,13 +5276,13 @@
       <c r="B153" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -5084,13 +5299,13 @@
       <c r="B154" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -5107,13 +5322,13 @@
       <c r="B155" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="10" t="s">
         <v>158</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -5130,13 +5345,13 @@
       <c r="B156" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -5153,13 +5368,13 @@
       <c r="B157" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="10" t="s">
         <v>160</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -5176,13 +5391,13 @@
       <c r="B158" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -5199,13 +5414,13 @@
       <c r="B159" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -5222,13 +5437,13 @@
       <c r="B160" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F160" s="6" t="s">
@@ -5245,13 +5460,13 @@
       <c r="B161" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -5268,13 +5483,13 @@
       <c r="B162" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -5291,13 +5506,13 @@
       <c r="B163" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="10" t="s">
         <v>168</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -5314,13 +5529,13 @@
       <c r="B164" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="10" t="s">
         <v>171</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -5337,13 +5552,13 @@
       <c r="B165" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F165" s="6" t="s">
@@ -5360,13 +5575,13 @@
       <c r="B166" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="10" t="s">
         <v>168</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -5383,13 +5598,13 @@
       <c r="B167" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -5406,13 +5621,13 @@
       <c r="B168" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="10" t="s">
         <v>158</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -5429,13 +5644,13 @@
       <c r="B169" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -5452,13 +5667,13 @@
       <c r="B170" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F170" s="6" t="s">
@@ -5475,13 +5690,13 @@
       <c r="B171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -5498,13 +5713,13 @@
       <c r="B172" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -5521,13 +5736,13 @@
       <c r="B173" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -5544,13 +5759,13 @@
       <c r="B174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -5567,13 +5782,13 @@
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="10" t="s">
         <v>160</v>
       </c>
       <c r="F175" s="6" t="s">
@@ -5590,13 +5805,13 @@
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -5613,13 +5828,13 @@
       <c r="B177" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -5636,13 +5851,13 @@
       <c r="B178" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E178" s="11" t="s">
+      <c r="E178" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -5659,13 +5874,13 @@
       <c r="B179" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -5682,13 +5897,13 @@
       <c r="B180" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F180" s="6" t="s">
@@ -5705,13 +5920,13 @@
       <c r="B181" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -5728,13 +5943,13 @@
       <c r="B182" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="10" t="s">
         <v>160</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -5751,13 +5966,13 @@
       <c r="B183" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E183" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -5774,13 +5989,13 @@
       <c r="B184" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F184" s="6" t="s">
@@ -5797,13 +6012,13 @@
       <c r="B185" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F185" s="6" t="s">
@@ -5820,13 +6035,13 @@
       <c r="B186" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="10" t="s">
         <v>168</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -5843,13 +6058,13 @@
       <c r="B187" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -5866,13 +6081,13 @@
       <c r="B188" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="10" t="s">
         <v>151</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -5889,13 +6104,13 @@
       <c r="B189" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F189" s="6" t="s">
@@ -5912,13 +6127,13 @@
       <c r="B190" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F190" s="6" t="s">
@@ -5935,13 +6150,13 @@
       <c r="B191" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -5958,13 +6173,13 @@
       <c r="B192" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -5981,13 +6196,13 @@
       <c r="B193" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -6004,13 +6219,13 @@
       <c r="B194" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E194" s="10" t="s">
         <v>158</v>
       </c>
       <c r="F194" s="6" t="s">
@@ -6027,13 +6242,13 @@
       <c r="B195" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="10" t="s">
         <v>152</v>
       </c>
       <c r="F195" s="6" t="s">
@@ -6050,13 +6265,13 @@
       <c r="B196" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E196" s="11" t="s">
+      <c r="E196" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F196" s="6" t="s">
@@ -6073,13 +6288,13 @@
       <c r="B197" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="E197" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F197" s="6" t="s">
@@ -6096,13 +6311,13 @@
       <c r="B198" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E198" s="11" t="s">
+      <c r="E198" s="10" t="s">
         <v>171</v>
       </c>
       <c r="F198" s="6" t="s">
@@ -6113,19 +6328,19 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="E199" s="10" t="s">
         <v>185</v>
       </c>
       <c r="F199" s="6" t="s">
@@ -6136,19 +6351,19 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E200" s="11" t="s">
+      <c r="E200" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F200" s="6" t="s">
@@ -6159,19 +6374,19 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E201" s="11" t="s">
+      <c r="E201" s="10" t="s">
         <v>188</v>
       </c>
       <c r="F201" s="6" t="s">
@@ -6182,19 +6397,19 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="E202" s="10" t="s">
         <v>185</v>
       </c>
       <c r="F202" s="6" t="s">
@@ -6205,19 +6420,19 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="10" t="s">
         <v>190</v>
       </c>
       <c r="F203" s="6" t="s">
@@ -6228,19 +6443,19 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E204" s="11" t="s">
+      <c r="E204" s="10" t="s">
         <v>190</v>
       </c>
       <c r="F204" s="6" t="s">
@@ -6251,19 +6466,19 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="10" t="s">
         <v>190</v>
       </c>
       <c r="F205" s="6" t="s">
@@ -6274,19 +6489,19 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E206" s="11" t="s">
+      <c r="E206" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F206" s="6" t="s">
@@ -6297,19 +6512,19 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D207" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E207" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F207" s="6" t="s">
@@ -6320,19 +6535,19 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E208" s="11" t="s">
+      <c r="E208" s="10" t="s">
         <v>185</v>
       </c>
       <c r="F208" s="6" t="s">
@@ -6343,19 +6558,19 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E209" s="11" t="s">
+      <c r="E209" s="10" t="s">
         <v>188</v>
       </c>
       <c r="F209" s="6" t="s">
@@ -6366,19 +6581,19 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="E210" s="10" t="s">
         <v>188</v>
       </c>
       <c r="F210" s="6" t="s">
@@ -6389,19 +6604,19 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="E211" s="10" t="s">
         <v>199</v>
       </c>
       <c r="F211" s="6" t="s">
@@ -6412,19 +6627,19 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E212" s="11" t="s">
+      <c r="E212" s="10" t="s">
         <v>201</v>
       </c>
       <c r="F212" s="6" t="s">
@@ -6435,19 +6650,19 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D213" s="11" t="s">
+      <c r="D213" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E213" s="11" t="s">
+      <c r="E213" s="10" t="s">
         <v>202</v>
       </c>
       <c r="F213" s="6" t="s">
@@ -6458,19 +6673,19 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D214" s="11" t="s">
+      <c r="D214" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E214" s="11" t="s">
+      <c r="E214" s="10" t="s">
         <v>199</v>
       </c>
       <c r="F214" s="6" t="s">
@@ -6481,19 +6696,19 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C215" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E215" s="11" t="s">
+      <c r="E215" s="10" t="s">
         <v>199</v>
       </c>
       <c r="F215" s="6" t="s">
@@ -6504,19 +6719,19 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E216" s="11" t="s">
+      <c r="E216" s="10" t="s">
         <v>209</v>
       </c>
       <c r="F216" s="6" t="s">
@@ -6527,19 +6742,19 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="C217" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D217" s="11" t="s">
+      <c r="D217" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E217" s="11" t="s">
+      <c r="E217" s="10" t="s">
         <v>209</v>
       </c>
       <c r="F217" s="6" t="s">
@@ -6550,19 +6765,19 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D218" s="11" t="s">
+      <c r="D218" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E218" s="11" t="s">
+      <c r="E218" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F218" s="6" t="s">
@@ -6573,19 +6788,19 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C219" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D219" s="11" t="s">
+      <c r="D219" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E219" s="11" t="s">
+      <c r="E219" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F219" s="6" t="s">
@@ -6596,19 +6811,19 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D220" s="11" t="s">
+      <c r="D220" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E220" s="11" t="s">
+      <c r="E220" s="10" t="s">
         <v>214</v>
       </c>
       <c r="F220" s="6" t="s">
@@ -6619,19 +6834,19 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C221" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E221" s="10" t="s">
         <v>216</v>
       </c>
       <c r="F221" s="6" t="s">
@@ -6642,19 +6857,19 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C222" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D222" s="11" t="s">
+      <c r="D222" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E222" s="11" t="s">
+      <c r="E222" s="10" t="s">
         <v>218</v>
       </c>
       <c r="F222" s="6" t="s">
@@ -6665,19 +6880,19 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D223" s="11" t="s">
+      <c r="D223" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="E223" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F223" s="6" t="s">
@@ -6688,19 +6903,19 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C224" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D224" s="11" t="s">
+      <c r="D224" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E224" s="11" t="s">
+      <c r="E224" s="10" t="s">
         <v>214</v>
       </c>
       <c r="F224" s="6" t="s">
@@ -6711,19 +6926,19 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C225" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D225" s="11" t="s">
+      <c r="D225" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E225" s="11" t="s">
+      <c r="E225" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F225" s="6" t="s">
@@ -6734,19 +6949,19 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C226" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E226" s="11" t="s">
+      <c r="E226" s="10" t="s">
         <v>218</v>
       </c>
       <c r="F226" s="6" t="s">
@@ -6757,19 +6972,19 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C227" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D227" s="11" t="s">
+      <c r="D227" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E227" s="10" t="s">
         <v>225</v>
       </c>
       <c r="F227" s="6" t="s">
@@ -6780,19 +6995,19 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C228" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E228" s="11" t="s">
+      <c r="E228" s="10" t="s">
         <v>225</v>
       </c>
       <c r="F228" s="6" t="s">
@@ -6803,19 +7018,19 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C229" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E229" s="10" t="s">
         <v>225</v>
       </c>
       <c r="F229" s="6" t="s">
@@ -6826,10 +7041,10 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C230" s="6" t="s">
@@ -6849,10 +7064,10 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C231" s="6" t="s">
@@ -6872,10 +7087,10 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C232" s="6" t="s">
@@ -6895,10 +7110,10 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C233" s="6" t="s">
@@ -6918,10 +7133,10 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C234" s="6" t="s">
@@ -6941,10 +7156,10 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C235" s="6" t="s">
@@ -6964,10 +7179,10 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C236" s="6" t="s">
@@ -6987,10 +7202,10 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C237" s="6" t="s">
@@ -7010,10 +7225,10 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -7033,10 +7248,10 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -7056,10 +7271,10 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C240" s="6" t="s">
@@ -7079,10 +7294,10 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -7102,10 +7317,10 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C242" s="6" t="s">
@@ -7125,10 +7340,10 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C243" s="6" t="s">
@@ -7148,10 +7363,10 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -7171,10 +7386,10 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C245" s="6" t="s">
@@ -7194,10 +7409,10 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -7217,10 +7432,10 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="6" t="s">
@@ -7240,10 +7455,10 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C248" s="6" t="s">
@@ -7263,10 +7478,10 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -7286,10 +7501,10 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -7309,10 +7524,10 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C251" s="6" t="s">
@@ -7332,10 +7547,10 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C252" s="6" t="s">
@@ -7355,10 +7570,10 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -7384,13 +7599,13 @@
       <c r="B254" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C254" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D254" s="11" t="s">
+      <c r="D254" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E254" s="11" t="s">
+      <c r="E254" s="10" t="s">
         <v>268</v>
       </c>
       <c r="F254" s="6" t="s">
@@ -7407,13 +7622,13 @@
       <c r="B255" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D255" s="11" t="s">
+      <c r="D255" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E255" s="10" t="s">
         <v>270</v>
       </c>
       <c r="F255" s="6" t="s">
@@ -7430,13 +7645,13 @@
       <c r="B256" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C256" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="D256" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="E256" s="10" t="s">
         <v>272</v>
       </c>
       <c r="F256" s="6" t="s">
@@ -7453,13 +7668,13 @@
       <c r="B257" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C257" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E257" s="11" t="s">
+      <c r="E257" s="10" t="s">
         <v>274</v>
       </c>
       <c r="F257" s="6" t="s">
@@ -7476,13 +7691,13 @@
       <c r="B258" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C258" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="D258" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E258" s="11" t="s">
+      <c r="E258" s="10" t="s">
         <v>275</v>
       </c>
       <c r="F258" s="6" t="s">
@@ -7499,13 +7714,13 @@
       <c r="B259" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C259" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D259" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E259" s="11" t="s">
+      <c r="E259" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F259" s="6"/>
@@ -7520,13 +7735,13 @@
       <c r="B260" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C260" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D260" s="11" t="s">
+      <c r="D260" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="E260" s="10" t="s">
         <v>275</v>
       </c>
       <c r="F260" s="6"/>
@@ -7541,13 +7756,13 @@
       <c r="B261" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C261" s="11" t="s">
+      <c r="C261" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D261" s="11" t="s">
+      <c r="D261" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E261" s="11" t="s">
+      <c r="E261" s="10" t="s">
         <v>277</v>
       </c>
       <c r="F261" s="6"/>
@@ -7585,13 +7800,13 @@
       <c r="B263" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C263" s="11" t="s">
+      <c r="C263" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D263" s="11" t="s">
+      <c r="D263" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E263" s="11" t="s">
+      <c r="E263" s="10" t="s">
         <v>284</v>
       </c>
       <c r="F263" s="6" t="s">
@@ -7608,13 +7823,13 @@
       <c r="B264" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C264" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="13" t="s">
+      <c r="D264" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E264" s="14" t="s">
+      <c r="E264" s="13" t="s">
         <v>287</v>
       </c>
       <c r="F264" s="6" t="s">
@@ -7625,19 +7840,19 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D265" s="13" t="s">
+      <c r="D265" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E265" s="14" t="s">
+      <c r="E265" s="13" t="s">
         <v>291</v>
       </c>
       <c r="F265" s="6" t="s">
@@ -7648,19 +7863,19 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="16" t="s">
+      <c r="D266" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="E266" s="17" t="s">
+      <c r="E266" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F266" s="6" t="s">
@@ -7677,13 +7892,13 @@
       <c r="B267" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="C267" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D267" s="11" t="s">
+      <c r="D267" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E267" s="11" t="s">
+      <c r="E267" s="10" t="s">
         <v>297</v>
       </c>
       <c r="F267" s="6" t="s">
@@ -7700,13 +7915,13 @@
       <c r="B268" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C268" s="11" t="s">
+      <c r="C268" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D268" s="11" t="s">
+      <c r="D268" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E268" s="11" t="s">
+      <c r="E268" s="10" t="s">
         <v>298</v>
       </c>
       <c r="F268" s="6" t="s">
@@ -7723,13 +7938,13 @@
       <c r="B269" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C269" s="11" t="s">
+      <c r="C269" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D269" s="11" t="s">
+      <c r="D269" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E269" s="11" t="s">
+      <c r="E269" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F269" s="6" t="s">
@@ -7746,13 +7961,13 @@
       <c r="B270" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C270" s="11" t="s">
+      <c r="C270" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D270" s="11" t="s">
+      <c r="D270" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E270" s="11" t="s">
+      <c r="E270" s="10" t="s">
         <v>300</v>
       </c>
       <c r="F270" s="6" t="s">
@@ -7769,13 +7984,13 @@
       <c r="B271" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C271" s="11" t="s">
+      <c r="C271" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D271" s="11" t="s">
+      <c r="D271" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E271" s="11" t="s">
+      <c r="E271" s="10" t="s">
         <v>301</v>
       </c>
       <c r="F271" s="6" t="s">
@@ -7792,13 +8007,13 @@
       <c r="B272" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="C272" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D272" s="11" t="s">
+      <c r="D272" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E272" s="11" t="s">
+      <c r="E272" s="10" t="s">
         <v>303</v>
       </c>
       <c r="F272" s="6" t="s">
@@ -7815,13 +8030,13 @@
       <c r="B273" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="C273" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D273" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E273" s="11" t="s">
+      <c r="E273" s="10" t="s">
         <v>297</v>
       </c>
       <c r="F273" s="6" t="s">
@@ -7838,13 +8053,13 @@
       <c r="B274" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C274" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D274" s="11" t="s">
+      <c r="D274" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E274" s="11" t="s">
+      <c r="E274" s="10" t="s">
         <v>298</v>
       </c>
       <c r="F274" s="6" t="s">
@@ -7861,13 +8076,13 @@
       <c r="B275" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C275" s="11" t="s">
+      <c r="C275" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D275" s="11" t="s">
+      <c r="D275" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E275" s="11" t="s">
+      <c r="E275" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F275" s="6" t="s">
@@ -7884,13 +8099,13 @@
       <c r="B276" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C276" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D276" s="11" t="s">
+      <c r="D276" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E276" s="11" t="s">
+      <c r="E276" s="10" t="s">
         <v>300</v>
       </c>
       <c r="F276" s="6" t="s">
@@ -7907,13 +8122,13 @@
       <c r="B277" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C277" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D277" s="11" t="s">
+      <c r="D277" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E277" s="11" t="s">
+      <c r="E277" s="10" t="s">
         <v>307</v>
       </c>
       <c r="F277" s="6" t="s">
@@ -7930,16 +8145,16 @@
       <c r="B278" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E278" s="18" t="s">
+      <c r="E278" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F278" s="18" t="s">
+      <c r="F278" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G278" s="1">
@@ -7953,16 +8168,16 @@
       <c r="B279" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D279" s="18" t="s">
+      <c r="D279" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E279" s="18" t="s">
+      <c r="E279" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F279" s="18" t="s">
+      <c r="F279" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G279" s="1">
@@ -7976,16 +8191,16 @@
       <c r="B280" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D280" s="18" t="s">
+      <c r="D280" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E280" s="18" t="s">
+      <c r="E280" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F280" s="18" t="s">
+      <c r="F280" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G280" s="1">
@@ -7999,16 +8214,16 @@
       <c r="B281" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D281" s="18" t="s">
+      <c r="D281" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E281" s="18" t="s">
+      <c r="E281" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F281" s="18" t="s">
+      <c r="F281" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G281" s="1">
@@ -8022,16 +8237,16 @@
       <c r="B282" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D282" s="18" t="s">
+      <c r="D282" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E282" s="18" t="s">
+      <c r="E282" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F282" s="18" t="s">
+      <c r="F282" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G282" s="1">
@@ -8045,16 +8260,16 @@
       <c r="B283" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D283" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E283" s="18" t="s">
+      <c r="E283" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F283" s="18" t="s">
+      <c r="F283" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G283" s="1">
@@ -8068,16 +8283,16 @@
       <c r="B284" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="D284" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E284" s="18" t="s">
+      <c r="E284" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F284" s="18" t="s">
+      <c r="F284" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G284" s="1">
@@ -8091,16 +8306,16 @@
       <c r="B285" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C285" s="18" t="s">
+      <c r="C285" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E285" s="18" t="s">
+      <c r="E285" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F285" s="18" t="s">
+      <c r="F285" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G285" s="1">
@@ -8114,16 +8329,16 @@
       <c r="B286" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E286" s="18" t="s">
+      <c r="E286" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F286" s="18" t="s">
+      <c r="F286" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G286" s="1">
@@ -8137,16 +8352,16 @@
       <c r="B287" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C287" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E287" s="18" t="s">
+      <c r="E287" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F287" s="18" t="s">
+      <c r="F287" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G287" s="1">
@@ -8160,16 +8375,16 @@
       <c r="B288" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="C288" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E288" s="18" t="s">
+      <c r="E288" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F288" s="18" t="s">
+      <c r="F288" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G288" s="1">
@@ -8183,16 +8398,16 @@
       <c r="B289" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C289" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="D289" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E289" s="18" t="s">
+      <c r="E289" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F289" s="18" t="s">
+      <c r="F289" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G289" s="1">
@@ -8200,750 +8415,1800 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="1"/>
+      <c r="A290" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E290" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F290" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G290" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="1"/>
+      <c r="A291" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G291" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="1"/>
+      <c r="A292" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E292" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G292" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="1"/>
+      <c r="A293" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F293" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="6"/>
-      <c r="G294" s="1"/>
+      <c r="A294" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E294" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F294" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G294" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
-      <c r="F295" s="6"/>
-      <c r="G295" s="1"/>
+      <c r="A295" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G295" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
-      <c r="G296" s="1"/>
+      <c r="A296" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E296" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F296" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G296" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="1"/>
+      <c r="A297" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E297" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="1"/>
+      <c r="A298" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C298" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E298" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="1"/>
+      <c r="A299" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E299" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F299" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G299" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-      <c r="F300" s="6"/>
-      <c r="G300" s="1"/>
+      <c r="A300" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E300" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G300" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="1"/>
+      <c r="A301" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E301" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G301" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-      <c r="F302" s="6"/>
-      <c r="G302" s="1"/>
+      <c r="A302" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E302" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G302" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="1"/>
+      <c r="A303" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E303" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G303" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="1"/>
+      <c r="A304" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C304" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E304" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G304" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
-      <c r="F305" s="6"/>
-      <c r="G305" s="1"/>
+      <c r="A305" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C305" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E305" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G305" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
-      <c r="F306" s="6"/>
-      <c r="G306" s="1"/>
+      <c r="A306" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C306" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E306" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G306" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="307" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-      <c r="F307" s="6"/>
-      <c r="G307" s="1"/>
+      <c r="A307" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E307" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G307" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="308" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
-      <c r="F308" s="6"/>
-      <c r="G308" s="1"/>
+      <c r="A308" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C308" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E308" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F308" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G308" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="309" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
-      <c r="F309" s="6"/>
-      <c r="G309" s="1"/>
+      <c r="A309" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E309" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="F309" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G309" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="310" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
-      <c r="G310" s="1"/>
+      <c r="A310" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C310" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E310" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G310" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="311" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
-      <c r="F311" s="6"/>
-      <c r="G311" s="1"/>
-    </row>
-    <row r="312" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
+      <c r="A311" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D311" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E311" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F311" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A312" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C312" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D312" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G312" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="313" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
+      <c r="A313" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C313" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D313" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E313" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F313" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G313" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="314" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
-      <c r="F314" s="6"/>
-      <c r="G314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C314" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D314" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E314" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F314" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G314" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-      <c r="F315" s="6"/>
-      <c r="G315" s="1"/>
+      <c r="A315" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C315" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E315" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F315" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G315" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A316" s="1"/>
-      <c r="B316" s="7"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="6"/>
-      <c r="G316" s="1"/>
+      <c r="A316" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C316" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E316" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F316" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G316" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A317" s="1"/>
-      <c r="B317" s="7"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="1"/>
+      <c r="A317" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C317" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E317" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F317" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G317" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A318" s="1"/>
-      <c r="B318" s="7"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6"/>
-      <c r="G318" s="1"/>
+      <c r="A318" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C318" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E318" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F318" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G318" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="319" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A319" s="1"/>
-      <c r="B319" s="7"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-      <c r="F319" s="6"/>
-      <c r="G319" s="1"/>
+      <c r="A319" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E319" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F319" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G319" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="320" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="6"/>
-      <c r="F320" s="6"/>
-      <c r="G320" s="1"/>
+      <c r="A320" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C320" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E320" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G320" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-      <c r="F321" s="6"/>
-      <c r="G321" s="1"/>
+      <c r="A321" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D321" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E321" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F321" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6"/>
-      <c r="F322" s="6"/>
-      <c r="G322" s="1"/>
+      <c r="A322" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C322" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E322" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F322" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G322" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
-      <c r="E323" s="6"/>
-      <c r="F323" s="6"/>
-      <c r="G323" s="1"/>
+      <c r="A323" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C323" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E323" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F323" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G323" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-      <c r="F324" s="6"/>
-      <c r="G324" s="1"/>
+      <c r="A324" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C324" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D324" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E324" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F324" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G324" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="325" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-      <c r="F325" s="6"/>
-      <c r="G325" s="1"/>
+      <c r="A325" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C325" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D325" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E325" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F325" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G325" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="326" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
-      <c r="F326" s="6"/>
-      <c r="G326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C326" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D326" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E326" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F326" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G326" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="327" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
-      <c r="F327" s="6"/>
-      <c r="G327" s="1"/>
+      <c r="A327" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E327" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F327" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G327" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
-      <c r="F328" s="6"/>
-      <c r="G328" s="1"/>
+      <c r="A328" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D328" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E328" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G328" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
-      <c r="F329" s="6"/>
-      <c r="G329" s="1"/>
+      <c r="A329" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C329" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D329" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E329" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F329" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G329" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-      <c r="G330" s="1"/>
+      <c r="A330" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C330" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D330" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E330" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F330" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G330" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6"/>
-      <c r="G331" s="1"/>
+      <c r="A331" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D331" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E331" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F331" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G331" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="1"/>
+      <c r="A332" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D332" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E332" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F332" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G332" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
-      <c r="F333" s="6"/>
-      <c r="G333" s="1"/>
+      <c r="A333" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D333" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E333" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F333" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G333" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="1"/>
+      <c r="A334" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D334" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E334" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F334" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G334" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
-      <c r="G335" s="1"/>
+      <c r="A335" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C335" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D335" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E335" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F335" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G335" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="336" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="1"/>
+      <c r="A336" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C336" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D336" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E336" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F336" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G336" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="337" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="1"/>
+      <c r="A337" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C337" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D337" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E337" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F337" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G337" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="338" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6"/>
-      <c r="G338" s="1"/>
+      <c r="A338" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D338" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E338" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F338" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G338" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="339" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6"/>
-      <c r="G339" s="1"/>
+      <c r="A339" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C339" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D339" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F339" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G339" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="340" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6"/>
-      <c r="G340" s="1"/>
+      <c r="A340" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C340" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D340" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E340" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F340" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G340" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="341" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
-      <c r="F341" s="6"/>
-      <c r="G341" s="1"/>
+      <c r="A341" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C341" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E341" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F341" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G341" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="342" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="1"/>
+      <c r="A342" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D342" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E342" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F342" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G342" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="343" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
-      <c r="G343" s="1"/>
+      <c r="A343" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C343" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D343" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E343" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F343" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G343" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="344" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
-      <c r="G344" s="1"/>
+      <c r="A344" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C344" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D344" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E344" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F344" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G344" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="345" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
-      <c r="E345" s="6"/>
-      <c r="F345" s="6"/>
-      <c r="G345" s="1"/>
+      <c r="A345" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D345" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E345" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F345" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G345" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="346" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
-      <c r="E346" s="6"/>
-      <c r="F346" s="6"/>
-      <c r="G346" s="1"/>
+      <c r="A346" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C346" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E346" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F346" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G346" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="347" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
-      <c r="F347" s="6"/>
-      <c r="G347" s="1"/>
+      <c r="A347" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C347" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D347" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E347" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F347" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G347" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="348" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
-      <c r="F348" s="6"/>
-      <c r="G348" s="1"/>
+      <c r="A348" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C348" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D348" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E348" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F348" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G348" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="349" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
-      <c r="F349" s="6"/>
-      <c r="G349" s="1"/>
+      <c r="A349" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C349" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D349" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E349" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F349" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G349" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-      <c r="F350" s="6"/>
-      <c r="G350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C350" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D350" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E350" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F350" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G350" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-      <c r="F351" s="6"/>
-      <c r="G351" s="1"/>
+      <c r="A351" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C351" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D351" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E351" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F351" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G351" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="352" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
-      <c r="F352" s="6"/>
-      <c r="G352" s="1"/>
+      <c r="A352" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C352" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D352" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E352" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F352" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G352" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
-      <c r="F353" s="6"/>
-      <c r="G353" s="1"/>
+      <c r="A353" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C353" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D353" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E353" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F353" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G353" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="6"/>
-      <c r="G354" s="1"/>
+      <c r="A354" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C354" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D354" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E354" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F354" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G354" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="6"/>
-      <c r="G355" s="1"/>
+      <c r="A355" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C355" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D355" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E355" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F355" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G355" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-      <c r="E356" s="6"/>
-      <c r="F356" s="6"/>
-      <c r="G356" s="1"/>
+      <c r="A356" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C356" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D356" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E356" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F356" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G356" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="357" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
-      <c r="E357" s="6"/>
-      <c r="F357" s="6"/>
-      <c r="G357" s="1"/>
+      <c r="A357" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C357" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E357" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F357" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G357" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="358" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
-      <c r="E358" s="6"/>
-      <c r="F358" s="6"/>
-      <c r="G358" s="1"/>
+      <c r="A358" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C358" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D358" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E358" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F358" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G358" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="359" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
-      <c r="E359" s="6"/>
-      <c r="F359" s="6"/>
-      <c r="G359" s="1"/>
+      <c r="A359" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C359" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D359" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E359" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F359" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G359" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="360" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-      <c r="E360" s="6"/>
-      <c r="F360" s="6"/>
-      <c r="G360" s="1"/>
+      <c r="A360" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C360" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D360" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E360" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F360" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G360" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-      <c r="E361" s="6"/>
-      <c r="F361" s="6"/>
-      <c r="G361" s="1"/>
+      <c r="A361" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C361" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D361" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E361" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F361" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G361" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
-      <c r="E362" s="6"/>
-      <c r="F362" s="6"/>
-      <c r="G362" s="1"/>
+      <c r="A362" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C362" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D362" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E362" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F362" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G362" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="363" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
-      <c r="E363" s="6"/>
-      <c r="F363" s="6"/>
-      <c r="G363" s="1"/>
+      <c r="A363" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C363" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D363" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E363" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F363" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G363" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="364" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
-      <c r="E364" s="6"/>
-      <c r="F364" s="6"/>
-      <c r="G364" s="1"/>
-    </row>
-    <row r="365" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A364" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C364" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D364" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E364" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F364" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G364" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="14.25" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
-      <c r="E365" s="6"/>
-      <c r="F365" s="6"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="366" spans="1:7" ht="14.25" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
-      <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
-      <c r="E366" s="6"/>
-      <c r="F366" s="6"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="367" spans="1:7" ht="14.25" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
-      <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
-      <c r="E367" s="6"/>
-      <c r="F367" s="6"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="368" spans="1:7" ht="14.25" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
-      <c r="E368" s="6"/>
-      <c r="F368" s="6"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="369" spans="1:7" ht="14.25" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="6"/>
-      <c r="F369" s="6"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="370" spans="1:7" ht="14.25" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
-      <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
-      <c r="E370" s="6"/>
-      <c r="F370" s="6"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="371" spans="1:7" ht="14.25" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
-      <c r="E371" s="6"/>
-      <c r="F371" s="6"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="372" spans="1:7" ht="14.25" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
-      <c r="C372" s="6"/>
-      <c r="D372" s="6"/>
-      <c r="E372" s="6"/>
-      <c r="F372" s="6"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" ht="14.25" customHeight="1">
@@ -17847,7 +19112,7 @@
       <c r="F1361" s="1"/>
       <c r="G1361" s="1"/>
     </row>
-    <row r="1362" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1362" spans="1:7" ht="14">
       <c r="A1362" s="1"/>
       <c r="B1362" s="1"/>
       <c r="C1362" s="1"/>
@@ -17856,7 +19121,7 @@
       <c r="F1362" s="1"/>
       <c r="G1362" s="1"/>
     </row>
-    <row r="1363" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1363" spans="1:7" ht="14">
       <c r="A1363" s="1"/>
       <c r="B1363" s="1"/>
       <c r="C1363" s="1"/>
@@ -17865,7 +19130,7 @@
       <c r="F1363" s="1"/>
       <c r="G1363" s="1"/>
     </row>
-    <row r="1364" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1364" spans="1:7" ht="14">
       <c r="A1364" s="1"/>
       <c r="B1364" s="1"/>
       <c r="C1364" s="1"/>
@@ -17874,7 +19139,7 @@
       <c r="F1364" s="1"/>
       <c r="G1364" s="1"/>
     </row>
-    <row r="1365" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1365" spans="1:7" ht="14">
       <c r="A1365" s="1"/>
       <c r="B1365" s="1"/>
       <c r="C1365" s="1"/>
@@ -17883,7 +19148,7 @@
       <c r="F1365" s="1"/>
       <c r="G1365" s="1"/>
     </row>
-    <row r="1366" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1366" spans="1:7" ht="14">
       <c r="A1366" s="1"/>
       <c r="B1366" s="1"/>
       <c r="C1366" s="1"/>
@@ -17892,7 +19157,7 @@
       <c r="F1366" s="1"/>
       <c r="G1366" s="1"/>
     </row>
-    <row r="1367" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1367" spans="1:7" ht="14">
       <c r="A1367" s="1"/>
       <c r="B1367" s="1"/>
       <c r="C1367" s="1"/>
@@ -17901,7 +19166,7 @@
       <c r="F1367" s="1"/>
       <c r="G1367" s="1"/>
     </row>
-    <row r="1368" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1368" spans="1:7" ht="14">
       <c r="A1368" s="1"/>
       <c r="B1368" s="1"/>
       <c r="C1368" s="1"/>
@@ -17910,7 +19175,7 @@
       <c r="F1368" s="1"/>
       <c r="G1368" s="1"/>
     </row>
-    <row r="1369" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1369" spans="1:7" ht="14">
       <c r="A1369" s="1"/>
       <c r="B1369" s="1"/>
       <c r="C1369" s="1"/>
@@ -24750,167 +26015,29 @@
       <c r="F2128" s="1"/>
       <c r="G2128" s="1"/>
     </row>
-    <row r="2129" spans="1:7" ht="14">
-      <c r="A2129" s="1"/>
-      <c r="B2129" s="1"/>
-      <c r="C2129" s="1"/>
-      <c r="D2129" s="2"/>
-      <c r="E2129" s="2"/>
-      <c r="F2129" s="1"/>
+    <row r="2129" spans="7:7" ht="14">
       <c r="G2129" s="1"/>
     </row>
-    <row r="2130" spans="1:7" ht="14">
-      <c r="A2130" s="1"/>
-      <c r="B2130" s="1"/>
-      <c r="C2130" s="1"/>
-      <c r="D2130" s="2"/>
-      <c r="E2130" s="2"/>
-      <c r="F2130" s="1"/>
+    <row r="2130" spans="7:7" ht="14">
       <c r="G2130" s="1"/>
     </row>
-    <row r="2131" spans="1:7" ht="14">
-      <c r="A2131" s="1"/>
-      <c r="B2131" s="1"/>
-      <c r="C2131" s="1"/>
-      <c r="D2131" s="2"/>
-      <c r="E2131" s="2"/>
-      <c r="F2131" s="1"/>
+    <row r="2131" spans="7:7" ht="14">
       <c r="G2131" s="1"/>
     </row>
-    <row r="2132" spans="1:7" ht="14">
-      <c r="A2132" s="1"/>
-      <c r="B2132" s="1"/>
-      <c r="C2132" s="1"/>
-      <c r="D2132" s="2"/>
-      <c r="E2132" s="2"/>
-      <c r="F2132" s="1"/>
+    <row r="2132" spans="7:7" ht="14">
       <c r="G2132" s="1"/>
     </row>
-    <row r="2133" spans="1:7" ht="14">
-      <c r="A2133" s="1"/>
-      <c r="B2133" s="1"/>
-      <c r="C2133" s="1"/>
-      <c r="D2133" s="2"/>
-      <c r="E2133" s="2"/>
-      <c r="F2133" s="1"/>
+    <row r="2133" spans="7:7" ht="14">
       <c r="G2133" s="1"/>
     </row>
-    <row r="2134" spans="1:7" ht="14">
-      <c r="A2134" s="1"/>
-      <c r="B2134" s="1"/>
-      <c r="C2134" s="1"/>
-      <c r="D2134" s="2"/>
-      <c r="E2134" s="2"/>
-      <c r="F2134" s="1"/>
+    <row r="2134" spans="7:7" ht="14">
       <c r="G2134" s="1"/>
     </row>
-    <row r="2135" spans="1:7" ht="14">
-      <c r="A2135" s="1"/>
-      <c r="B2135" s="1"/>
-      <c r="C2135" s="1"/>
-      <c r="D2135" s="2"/>
-      <c r="E2135" s="2"/>
-      <c r="F2135" s="1"/>
+    <row r="2135" spans="7:7" ht="14">
       <c r="G2135" s="1"/>
     </row>
-    <row r="2136" spans="1:7" ht="14">
-      <c r="A2136" s="1"/>
-      <c r="B2136" s="1"/>
-      <c r="C2136" s="1"/>
-      <c r="D2136" s="2"/>
-      <c r="E2136" s="2"/>
-      <c r="F2136" s="1"/>
+    <row r="2136" spans="7:7" ht="14">
       <c r="G2136" s="1"/>
-    </row>
-    <row r="2137" spans="1:7" ht="14">
-      <c r="A2137" s="1"/>
-      <c r="B2137" s="1"/>
-      <c r="C2137" s="1"/>
-      <c r="D2137" s="2"/>
-      <c r="E2137" s="2"/>
-      <c r="F2137" s="1"/>
-      <c r="G2137" s="1"/>
-    </row>
-    <row r="2138" spans="1:7" ht="14">
-      <c r="A2138" s="1"/>
-      <c r="B2138" s="1"/>
-      <c r="C2138" s="1"/>
-      <c r="D2138" s="2"/>
-      <c r="E2138" s="2"/>
-      <c r="F2138" s="1"/>
-      <c r="G2138" s="1"/>
-    </row>
-    <row r="2139" spans="1:7" ht="14">
-      <c r="A2139" s="1"/>
-      <c r="B2139" s="1"/>
-      <c r="C2139" s="1"/>
-      <c r="D2139" s="2"/>
-      <c r="E2139" s="2"/>
-      <c r="F2139" s="1"/>
-      <c r="G2139" s="1"/>
-    </row>
-    <row r="2140" spans="1:7" ht="14">
-      <c r="A2140" s="1"/>
-      <c r="B2140" s="1"/>
-      <c r="C2140" s="1"/>
-      <c r="D2140" s="2"/>
-      <c r="E2140" s="2"/>
-      <c r="F2140" s="1"/>
-      <c r="G2140" s="1"/>
-    </row>
-    <row r="2141" spans="1:7" ht="14">
-      <c r="A2141" s="1"/>
-      <c r="B2141" s="1"/>
-      <c r="C2141" s="1"/>
-      <c r="D2141" s="2"/>
-      <c r="E2141" s="2"/>
-      <c r="F2141" s="1"/>
-      <c r="G2141" s="1"/>
-    </row>
-    <row r="2142" spans="1:7" ht="14">
-      <c r="A2142" s="1"/>
-      <c r="B2142" s="1"/>
-      <c r="C2142" s="1"/>
-      <c r="D2142" s="2"/>
-      <c r="E2142" s="2"/>
-      <c r="F2142" s="1"/>
-      <c r="G2142" s="1"/>
-    </row>
-    <row r="2143" spans="1:7" ht="14">
-      <c r="A2143" s="1"/>
-      <c r="B2143" s="1"/>
-      <c r="C2143" s="1"/>
-      <c r="D2143" s="2"/>
-      <c r="E2143" s="2"/>
-      <c r="F2143" s="1"/>
-      <c r="G2143" s="1"/>
-    </row>
-    <row r="2144" spans="1:7" ht="14">
-      <c r="A2144" s="1"/>
-      <c r="B2144" s="1"/>
-      <c r="C2144" s="1"/>
-      <c r="D2144" s="2"/>
-      <c r="E2144" s="2"/>
-      <c r="F2144" s="1"/>
-      <c r="G2144" s="1"/>
-    </row>
-    <row r="2145" spans="1:7" ht="14">
-      <c r="A2145" s="1"/>
-      <c r="B2145" s="1"/>
-      <c r="C2145" s="1"/>
-      <c r="D2145" s="2"/>
-      <c r="E2145" s="2"/>
-      <c r="F2145" s="1"/>
-      <c r="G2145" s="1"/>
-    </row>
-    <row r="2146" spans="1:7" ht="14">
-      <c r="A2146" s="1"/>
-      <c r="B2146" s="1"/>
-      <c r="C2146" s="1"/>
-      <c r="D2146" s="2"/>
-      <c r="E2146" s="2"/>
-      <c r="F2146" s="1"/>
-      <c r="G2146" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFD6D8-0586-46F9-BDDE-B363662B32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91A0F4-2382-44A2-AB63-F09320AA52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="266">
   <si>
     <t>CODE</t>
   </si>
@@ -1174,58 +1174,6 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Carlito"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color rgb="FF212529"/>
-        <name val="OpenSans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1500,16 +1448,68 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF212529"/>
+        <name val="OpenSans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Carlito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color rgb="FF000000"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1526,16 +1526,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}" name="Table1" displayName="Table1" ref="A1:G170" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:G170" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}" name="Table1" displayName="Table1" ref="A1:G170" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G170" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="EPJ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9AA79838-E24B-4370-9748-61F76CC10309}" name="CODE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C28E19A-4D6F-41B8-A21D-8B1A2B7D083C}" name="TITLE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{847797B8-735A-411F-B50F-19AB5E0C7BB7}" name="SLOT" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{95CDE57C-6688-4AC1-A115-CCBEDCDEDE6C}" name="VENUE" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3216020C-7AD5-4F6D-BDA8-2386D647692D}" name="FACULTY" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FD06E829-385C-486D-816D-DE40774B5475}" name="TYPE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00A92BBC-FF16-4C60-A984-BB3AB7B87BD5}" name="CREDITS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9AA79838-E24B-4370-9748-61F76CC10309}" name="CODE" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2C28E19A-4D6F-41B8-A21D-8B1A2B7D083C}" name="TITLE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{847797B8-735A-411F-B50F-19AB5E0C7BB7}" name="SLOT" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{95CDE57C-6688-4AC1-A115-CCBEDCDEDE6C}" name="VENUE" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3216020C-7AD5-4F6D-BDA8-2386D647692D}" name="FACULTY" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FD06E829-385C-486D-816D-DE40774B5475}" name="TYPE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00A92BBC-FF16-4C60-A984-BB3AB7B87BD5}" name="CREDITS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1831,8 +1837,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:G170"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1869,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -1899,9 +1905,7 @@
       <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
         <v>116</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -1945,9 +1949,7 @@
       <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
         <v>116</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -1991,9 +1993,7 @@
       <c r="B7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -2037,9 +2037,7 @@
       <c r="B9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -2083,9 +2081,7 @@
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
         <v>116</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="18" t="s">
         <v>125</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="18" t="s">
         <v>125</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>125</v>
       </c>
@@ -2191,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>125</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="18" t="s">
         <v>125</v>
       </c>
@@ -2237,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="18" t="s">
         <v>125</v>
       </c>
@@ -2283,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2313,9 +2309,7 @@
       <c r="B21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
         <v>116</v>
       </c>
@@ -2329,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
@@ -2359,9 +2353,7 @@
       <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
         <v>116</v>
       </c>
@@ -2375,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -2405,9 +2397,7 @@
       <c r="B25" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
         <v>116</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -2451,9 +2441,7 @@
       <c r="B27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
         <v>116</v>
       </c>
@@ -2467,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>128</v>
       </c>
@@ -2490,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>128</v>
       </c>
@@ -2513,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -2543,9 +2531,7 @@
       <c r="B31" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
         <v>116</v>
       </c>
@@ -2559,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>136</v>
       </c>
@@ -2589,9 +2575,7 @@
       <c r="B33" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
         <v>116</v>
       </c>
@@ -2605,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>136</v>
       </c>
@@ -2635,9 +2619,7 @@
       <c r="B35" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
         <v>116</v>
       </c>
@@ -2651,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
@@ -2681,9 +2663,7 @@
       <c r="B37" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
         <v>116</v>
       </c>
@@ -2697,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -2727,9 +2707,7 @@
       <c r="B39" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
         <v>116</v>
       </c>
@@ -2743,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -2773,9 +2751,7 @@
       <c r="B41" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
         <v>116</v>
       </c>
@@ -2789,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>138</v>
       </c>
@@ -2812,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>138</v>
       </c>
@@ -2835,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>138</v>
       </c>
@@ -2858,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -2881,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>140</v>
       </c>
@@ -2911,9 +2887,7 @@
       <c r="B47" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
         <v>116</v>
       </c>
@@ -2927,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>140</v>
       </c>
@@ -2957,9 +2931,7 @@
       <c r="B49" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
         <v>116</v>
       </c>
@@ -2973,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>140</v>
       </c>
@@ -3003,9 +2975,7 @@
       <c r="B51" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
         <v>116</v>
       </c>
@@ -3019,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="7" t="s">
         <v>140</v>
       </c>
@@ -3049,9 +3019,7 @@
       <c r="B53" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
         <v>116</v>
       </c>
@@ -3065,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>144</v>
       </c>
@@ -3088,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="7" t="s">
         <v>144</v>
       </c>
@@ -3111,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -3134,7 +3102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -3157,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>148</v>
       </c>
@@ -3180,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -3203,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>150</v>
       </c>
@@ -3233,9 +3201,7 @@
       <c r="B61" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
         <v>116</v>
       </c>
@@ -3249,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -3279,9 +3245,7 @@
       <c r="B63" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="C63" s="16"/>
       <c r="D63" s="16" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>150</v>
       </c>
@@ -3325,9 +3289,7 @@
       <c r="B65" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="C65" s="16"/>
       <c r="D65" s="16" t="s">
         <v>116</v>
       </c>
@@ -3341,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="66" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>153</v>
       </c>
@@ -3364,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="67" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
@@ -3387,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="68" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>153</v>
       </c>
@@ -3410,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="69" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>153</v>
       </c>
@@ -3433,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="70" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -3456,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="71" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>156</v>
       </c>
@@ -3479,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="72" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>156</v>
       </c>
@@ -3509,9 +3471,7 @@
       <c r="B73" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
         <v>116</v>
       </c>
@@ -3525,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="74" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>156</v>
       </c>
@@ -3555,9 +3515,7 @@
       <c r="B75" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
         <v>116</v>
       </c>
@@ -3571,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="76" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
@@ -3594,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="77" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
@@ -3617,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="78" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>159</v>
       </c>
@@ -3647,9 +3605,7 @@
       <c r="B79" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="16" t="s">
         <v>116</v>
       </c>
@@ -3663,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>159</v>
       </c>
@@ -3693,9 +3649,7 @@
       <c r="B81" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="C81" s="16"/>
       <c r="D81" s="16" t="s">
         <v>116</v>
       </c>
@@ -3709,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="82" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>161</v>
       </c>
@@ -3739,9 +3693,7 @@
       <c r="B83" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="16" t="s">
         <v>116</v>
       </c>
@@ -3755,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="84" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>164</v>
       </c>
@@ -3778,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="85" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>164</v>
       </c>
@@ -3801,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="86" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>164</v>
       </c>
@@ -3824,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="87" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
@@ -3847,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="88" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>164</v>
       </c>
@@ -3870,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="89" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>164</v>
       </c>
@@ -3893,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="90" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>168</v>
       </c>
@@ -3923,9 +3875,7 @@
       <c r="B91" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>110</v>
-      </c>
+      <c r="C91" s="16"/>
       <c r="D91" s="16" t="s">
         <v>116</v>
       </c>
@@ -3939,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="92" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A92" s="7" t="s">
         <v>168</v>
       </c>
@@ -3969,9 +3919,7 @@
       <c r="B93" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="C93" s="16"/>
       <c r="D93" s="16" t="s">
         <v>116</v>
       </c>
@@ -3985,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="94" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A94" s="7" t="s">
         <v>170</v>
       </c>
@@ -4015,9 +3963,7 @@
       <c r="B95" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="C95" s="16"/>
       <c r="D95" s="16" t="s">
         <v>116</v>
       </c>
@@ -4031,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="96" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A96" s="7" t="s">
         <v>170</v>
       </c>
@@ -4061,9 +4007,7 @@
       <c r="B97" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="C97" s="16"/>
       <c r="D97" s="16" t="s">
         <v>116</v>
       </c>
@@ -4077,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="98" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A98" s="7" t="s">
         <v>174</v>
       </c>
@@ -4100,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="99" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A99" s="7" t="s">
         <v>174</v>
       </c>
@@ -4123,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="100" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A100" s="7" t="s">
         <v>174</v>
       </c>
@@ -4146,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="101" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A101" s="7" t="s">
         <v>174</v>
       </c>
@@ -4169,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="102" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A102" s="7" t="s">
         <v>177</v>
       </c>
@@ -4192,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="103" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A103" s="7" t="s">
         <v>177</v>
       </c>
@@ -4215,7 +4159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="104" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>177</v>
       </c>
@@ -4238,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="105" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A105" s="7" t="s">
         <v>177</v>
       </c>
@@ -4261,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="106" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A106" s="7" t="s">
         <v>179</v>
       </c>
@@ -4284,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="107" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A107" s="7" t="s">
         <v>179</v>
       </c>
@@ -4307,7 +4251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="108" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A108" s="7" t="s">
         <v>179</v>
       </c>
@@ -4330,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="109" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A109" s="7" t="s">
         <v>179</v>
       </c>
@@ -4353,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="110" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A110" s="7" t="s">
         <v>182</v>
       </c>
@@ -4383,9 +4327,7 @@
       <c r="B111" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="C111" s="16"/>
       <c r="D111" s="16" t="s">
         <v>116</v>
       </c>
@@ -4406,9 +4348,7 @@
       <c r="B112" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="C112" s="16"/>
       <c r="D112" s="16" t="s">
         <v>116</v>
       </c>
@@ -4422,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="113" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A113" s="7" t="s">
         <v>182</v>
       </c>
@@ -4445,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="114" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A114" s="7" t="s">
         <v>185</v>
       </c>
@@ -4468,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="115" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A115" s="7" t="s">
         <v>187</v>
       </c>
@@ -4491,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="116" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A116" s="7" t="s">
         <v>187</v>
       </c>
@@ -4514,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="117" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A117" s="7" t="s">
         <v>192</v>
       </c>
@@ -4537,7 +4477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="118" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A118" s="7" t="s">
         <v>192</v>
       </c>
@@ -4560,7 +4500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="119" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A119" s="7" t="s">
         <v>192</v>
       </c>
@@ -4583,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="120" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A120" s="7" t="s">
         <v>97</v>
       </c>
@@ -4613,9 +4553,7 @@
       <c r="B121" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>81</v>
-      </c>
+      <c r="C121" s="16"/>
       <c r="D121" s="16" t="s">
         <v>116</v>
       </c>
@@ -4629,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="122" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A122" s="7" t="s">
         <v>97</v>
       </c>
@@ -4659,9 +4597,7 @@
       <c r="B123" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="C123" s="16"/>
       <c r="D123" s="16" t="s">
         <v>116</v>
       </c>
@@ -4675,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="124" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A124" s="7" t="s">
         <v>97</v>
       </c>
@@ -4705,9 +4641,7 @@
       <c r="B125" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="C125" s="16"/>
       <c r="D125" s="16" t="s">
         <v>116</v>
       </c>
@@ -4721,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="126" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
@@ -4751,9 +4685,7 @@
       <c r="B127" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="C127" s="16"/>
       <c r="D127" s="16" t="s">
         <v>116</v>
       </c>
@@ -4767,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="128" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>200</v>
       </c>
@@ -4790,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="129" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>200</v>
       </c>
@@ -4813,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="130" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>202</v>
       </c>
@@ -4836,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="131" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>207</v>
       </c>
@@ -4859,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="132" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
@@ -4882,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="133" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A133" s="1" t="s">
         <v>207</v>
       </c>
@@ -4905,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="134" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>207</v>
       </c>
@@ -4928,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>207</v>
       </c>
@@ -4951,7 +4883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>207</v>
       </c>
@@ -4974,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="137" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A137" s="1" t="s">
         <v>209</v>
       </c>
@@ -4997,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="138" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="s">
         <v>209</v>
       </c>
@@ -5020,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="139" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>212</v>
       </c>
@@ -5043,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="140" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A140" s="1" t="s">
         <v>104</v>
       </c>
@@ -5066,7 +4998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="141" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
@@ -5089,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="142" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>245</v>
       </c>
@@ -5112,7 +5044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="143" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>114</v>
       </c>
@@ -5135,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="144" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
@@ -5165,9 +5097,7 @@
       <c r="B145" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="C145" s="23"/>
       <c r="D145" s="23" t="s">
         <v>66</v>
       </c>
@@ -5188,9 +5118,7 @@
       <c r="B146" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C146" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C146" s="23"/>
       <c r="D146" s="23" t="s">
         <v>67</v>
       </c>
@@ -5204,7 +5132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>106</v>
       </c>
@@ -5227,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A148" s="1" t="s">
         <v>251</v>
       </c>
@@ -5257,9 +5185,7 @@
       <c r="B149" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="C149" s="23"/>
       <c r="D149" s="23" t="s">
         <v>43</v>
       </c>
@@ -5273,7 +5199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="150" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>254</v>
       </c>
@@ -5296,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="151" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A151" s="1" t="s">
         <v>254</v>
       </c>
@@ -5319,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>254</v>
       </c>
@@ -5349,9 +5275,7 @@
       <c r="B153" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="C153" s="23"/>
       <c r="D153" s="23" t="s">
         <v>32</v>
       </c>
@@ -5372,9 +5296,7 @@
       <c r="B154" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C154" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="C154" s="23"/>
       <c r="D154" s="23" t="s">
         <v>35</v>
       </c>
@@ -5388,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="155" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>113</v>
       </c>
@@ -5411,7 +5333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="156" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
@@ -5434,7 +5356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="157" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A157" s="1" t="s">
         <v>113</v>
       </c>
@@ -5464,9 +5386,7 @@
       <c r="B158" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="C158" s="23"/>
       <c r="D158" s="16" t="s">
         <v>55</v>
       </c>
@@ -5487,9 +5407,7 @@
       <c r="B159" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C159" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="C159" s="23"/>
       <c r="D159" s="16" t="s">
         <v>71</v>
       </c>
@@ -5503,7 +5421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="160" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A160" s="1" t="s">
         <v>107</v>
       </c>
@@ -5533,9 +5451,7 @@
       <c r="B161" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="23" t="s">
-        <v>99</v>
-      </c>
+      <c r="C161" s="23"/>
       <c r="D161" s="16" t="s">
         <v>48</v>
       </c>
@@ -5549,7 +5465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="162" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>112</v>
       </c>
@@ -5572,7 +5488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="163" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A163" s="1" t="s">
         <v>112</v>
       </c>
@@ -5595,7 +5511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="164" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A164" s="1" t="s">
         <v>112</v>
       </c>
@@ -5618,7 +5534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="165" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A165" s="1" t="s">
         <v>111</v>
       </c>
@@ -5641,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="166" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A166" s="1" t="s">
         <v>111</v>
       </c>
@@ -5664,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="167" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A167" s="1" t="s">
         <v>111</v>
       </c>
@@ -5694,9 +5610,7 @@
       <c r="B168" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="C168" s="23"/>
       <c r="D168" s="16" t="s">
         <v>47</v>
       </c>
@@ -5717,9 +5631,7 @@
       <c r="B169" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C169" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="C169" s="23"/>
       <c r="D169" s="16" t="s">
         <v>48</v>
       </c>
@@ -5733,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="170" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="24" t="s">
         <v>108</v>
       </c>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC91A0F4-2382-44A2-AB63-F09320AA52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201FD3F-9AFC-4D52-BABD-E0612EEC1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="266">
   <si>
     <t>CODE</t>
   </si>
@@ -1527,13 +1527,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}" name="Table1" displayName="Table1" ref="A1:G170" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:G170" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="EPJ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G170" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9AA79838-E24B-4370-9748-61F76CC10309}" name="CODE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2C28E19A-4D6F-41B8-A21D-8B1A2B7D083C}" name="TITLE" dataDxfId="5"/>
@@ -1837,8 +1831,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G2130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C169"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="A2:G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1875,7 +1869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -1905,7 +1899,9 @@
       <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="16" t="s">
         <v>116</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -1949,7 +1945,9 @@
       <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D5" s="16" t="s">
         <v>116</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -1993,7 +1991,9 @@
       <c r="B7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -2037,7 +2037,9 @@
       <c r="B9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2083,9 @@
       <c r="B11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" s="16" t="s">
         <v>116</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="18" t="s">
         <v>125</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="18" t="s">
         <v>125</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>125</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>125</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="18" t="s">
         <v>125</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="18" t="s">
         <v>125</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2309,7 +2313,9 @@
       <c r="B21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D21" s="16" t="s">
         <v>116</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
@@ -2353,7 +2359,9 @@
       <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>116</v>
       </c>
@@ -2367,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -2397,7 +2405,9 @@
       <c r="B25" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D25" s="16" t="s">
         <v>116</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -2441,7 +2451,9 @@
       <c r="B27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D27" s="16" t="s">
         <v>116</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>128</v>
       </c>
@@ -2478,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>128</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -2531,7 +2543,9 @@
       <c r="B31" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D31" s="16" t="s">
         <v>116</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>136</v>
       </c>
@@ -2575,7 +2589,9 @@
       <c r="B33" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D33" s="16" t="s">
         <v>116</v>
       </c>
@@ -2589,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>136</v>
       </c>
@@ -2619,7 +2635,9 @@
       <c r="B35" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D35" s="16" t="s">
         <v>116</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
@@ -2663,7 +2681,9 @@
       <c r="B37" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D37" s="16" t="s">
         <v>116</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -2707,7 +2727,9 @@
       <c r="B39" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D39" s="16" t="s">
         <v>116</v>
       </c>
@@ -2721,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -2751,7 +2773,9 @@
       <c r="B41" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D41" s="16" t="s">
         <v>116</v>
       </c>
@@ -2765,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>138</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>138</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>138</v>
       </c>
@@ -2834,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -2857,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>140</v>
       </c>
@@ -2887,7 +2911,9 @@
       <c r="B47" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D47" s="16" t="s">
         <v>116</v>
       </c>
@@ -2901,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>140</v>
       </c>
@@ -2931,7 +2957,9 @@
       <c r="B49" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="16"/>
+      <c r="C49" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D49" s="16" t="s">
         <v>116</v>
       </c>
@@ -2945,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>140</v>
       </c>
@@ -2975,7 +3003,9 @@
       <c r="B51" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D51" s="16" t="s">
         <v>116</v>
       </c>
@@ -2989,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="7" t="s">
         <v>140</v>
       </c>
@@ -3019,7 +3049,9 @@
       <c r="B53" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D53" s="16" t="s">
         <v>116</v>
       </c>
@@ -3033,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>144</v>
       </c>
@@ -3056,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="7" t="s">
         <v>144</v>
       </c>
@@ -3079,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -3102,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -3125,7 +3157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>148</v>
       </c>
@@ -3148,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -3171,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>150</v>
       </c>
@@ -3201,7 +3233,9 @@
       <c r="B61" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D61" s="16" t="s">
         <v>116</v>
       </c>
@@ -3215,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -3245,7 +3279,9 @@
       <c r="B63" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D63" s="16" t="s">
         <v>116</v>
       </c>
@@ -3259,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>150</v>
       </c>
@@ -3289,7 +3325,9 @@
       <c r="B65" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="16"/>
+      <c r="C65" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D65" s="16" t="s">
         <v>116</v>
       </c>
@@ -3303,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>153</v>
       </c>
@@ -3326,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
@@ -3349,7 +3387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>153</v>
       </c>
@@ -3372,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>153</v>
       </c>
@@ -3395,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -3418,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>156</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>156</v>
       </c>
@@ -3471,7 +3509,9 @@
       <c r="B73" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="16"/>
+      <c r="C73" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D73" s="16" t="s">
         <v>116</v>
       </c>
@@ -3485,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>156</v>
       </c>
@@ -3515,7 +3555,9 @@
       <c r="B75" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="16"/>
+      <c r="C75" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D75" s="16" t="s">
         <v>116</v>
       </c>
@@ -3529,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
@@ -3552,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
@@ -3575,7 +3617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>159</v>
       </c>
@@ -3605,7 +3647,9 @@
       <c r="B79" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="16"/>
+      <c r="C79" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D79" s="16" t="s">
         <v>116</v>
       </c>
@@ -3619,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="80" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>159</v>
       </c>
@@ -3649,7 +3693,9 @@
       <c r="B81" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D81" s="16" t="s">
         <v>116</v>
       </c>
@@ -3663,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>161</v>
       </c>
@@ -3693,7 +3739,9 @@
       <c r="B83" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="16"/>
+      <c r="C83" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D83" s="16" t="s">
         <v>116</v>
       </c>
@@ -3707,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>164</v>
       </c>
@@ -3730,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>164</v>
       </c>
@@ -3753,7 +3801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>164</v>
       </c>
@@ -3776,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
@@ -3799,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>164</v>
       </c>
@@ -3822,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>164</v>
       </c>
@@ -3845,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>168</v>
       </c>
@@ -3875,7 +3923,9 @@
       <c r="B91" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="16"/>
+      <c r="C91" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D91" s="16" t="s">
         <v>116</v>
       </c>
@@ -3889,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="7" t="s">
         <v>168</v>
       </c>
@@ -3919,7 +3969,9 @@
       <c r="B93" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="16"/>
+      <c r="C93" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D93" s="16" t="s">
         <v>116</v>
       </c>
@@ -3933,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="7" t="s">
         <v>170</v>
       </c>
@@ -3963,7 +4015,9 @@
       <c r="B95" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C95" s="16"/>
+      <c r="C95" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D95" s="16" t="s">
         <v>116</v>
       </c>
@@ -3977,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="7" t="s">
         <v>170</v>
       </c>
@@ -4007,7 +4061,9 @@
       <c r="B97" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C97" s="16"/>
+      <c r="C97" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D97" s="16" t="s">
         <v>116</v>
       </c>
@@ -4021,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="7" t="s">
         <v>174</v>
       </c>
@@ -4044,7 +4100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="7" t="s">
         <v>174</v>
       </c>
@@ -4067,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="7" t="s">
         <v>174</v>
       </c>
@@ -4090,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A101" s="7" t="s">
         <v>174</v>
       </c>
@@ -4113,7 +4169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A102" s="7" t="s">
         <v>177</v>
       </c>
@@ -4136,7 +4192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A103" s="7" t="s">
         <v>177</v>
       </c>
@@ -4159,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>177</v>
       </c>
@@ -4182,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A105" s="7" t="s">
         <v>177</v>
       </c>
@@ -4205,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A106" s="7" t="s">
         <v>179</v>
       </c>
@@ -4228,7 +4284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A107" s="7" t="s">
         <v>179</v>
       </c>
@@ -4251,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A108" s="7" t="s">
         <v>179</v>
       </c>
@@ -4274,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A109" s="7" t="s">
         <v>179</v>
       </c>
@@ -4297,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A110" s="7" t="s">
         <v>182</v>
       </c>
@@ -4327,7 +4383,9 @@
       <c r="B111" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="16"/>
+      <c r="C111" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D111" s="16" t="s">
         <v>116</v>
       </c>
@@ -4348,7 +4406,9 @@
       <c r="B112" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="16"/>
+      <c r="C112" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D112" s="16" t="s">
         <v>116</v>
       </c>
@@ -4362,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="113" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A113" s="7" t="s">
         <v>182</v>
       </c>
@@ -4385,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="114" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A114" s="7" t="s">
         <v>185</v>
       </c>
@@ -4408,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="115" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A115" s="7" t="s">
         <v>187</v>
       </c>
@@ -4431,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="116" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A116" s="7" t="s">
         <v>187</v>
       </c>
@@ -4454,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="117" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A117" s="7" t="s">
         <v>192</v>
       </c>
@@ -4477,7 +4537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="118" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A118" s="7" t="s">
         <v>192</v>
       </c>
@@ -4500,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="119" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A119" s="7" t="s">
         <v>192</v>
       </c>
@@ -4523,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="120" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A120" s="7" t="s">
         <v>97</v>
       </c>
@@ -4553,7 +4613,9 @@
       <c r="B121" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="16"/>
+      <c r="C121" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D121" s="16" t="s">
         <v>116</v>
       </c>
@@ -4567,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="122" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A122" s="7" t="s">
         <v>97</v>
       </c>
@@ -4597,7 +4659,9 @@
       <c r="B123" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="16"/>
+      <c r="C123" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D123" s="16" t="s">
         <v>116</v>
       </c>
@@ -4611,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="124" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A124" s="7" t="s">
         <v>97</v>
       </c>
@@ -4641,7 +4705,9 @@
       <c r="B125" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="16"/>
+      <c r="C125" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D125" s="16" t="s">
         <v>116</v>
       </c>
@@ -4655,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="126" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
@@ -4685,7 +4751,9 @@
       <c r="B127" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="16"/>
+      <c r="C127" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D127" s="16" t="s">
         <v>116</v>
       </c>
@@ -4699,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="128" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>200</v>
       </c>
@@ -4722,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="129" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>200</v>
       </c>
@@ -4745,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="130" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>202</v>
       </c>
@@ -4768,7 +4836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="131" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>207</v>
       </c>
@@ -4791,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="132" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
@@ -4814,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="133" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A133" s="1" t="s">
         <v>207</v>
       </c>
@@ -4837,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="134" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>207</v>
       </c>
@@ -4860,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>207</v>
       </c>
@@ -4883,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="136" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>207</v>
       </c>
@@ -4906,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="137" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A137" s="1" t="s">
         <v>209</v>
       </c>
@@ -4929,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="138" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="s">
         <v>209</v>
       </c>
@@ -4952,7 +5020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="139" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>212</v>
       </c>
@@ -4975,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="140" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A140" s="1" t="s">
         <v>104</v>
       </c>
@@ -4998,7 +5066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="141" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
@@ -5021,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="142" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>245</v>
       </c>
@@ -5044,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="143" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>114</v>
       </c>
@@ -5067,7 +5135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="144" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
@@ -5097,7 +5165,9 @@
       <c r="B145" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="23"/>
+      <c r="C145" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D145" s="23" t="s">
         <v>66</v>
       </c>
@@ -5118,7 +5188,9 @@
       <c r="B146" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C146" s="23"/>
+      <c r="C146" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D146" s="23" t="s">
         <v>67</v>
       </c>
@@ -5132,7 +5204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="147" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>106</v>
       </c>
@@ -5155,7 +5227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="148" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A148" s="1" t="s">
         <v>251</v>
       </c>
@@ -5185,7 +5257,9 @@
       <c r="B149" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="23"/>
+      <c r="C149" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D149" s="23" t="s">
         <v>43</v>
       </c>
@@ -5199,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="150" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>254</v>
       </c>
@@ -5222,7 +5296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="151" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A151" s="1" t="s">
         <v>254</v>
       </c>
@@ -5245,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="152" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>254</v>
       </c>
@@ -5275,7 +5349,9 @@
       <c r="B153" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="23"/>
+      <c r="C153" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D153" s="23" t="s">
         <v>32</v>
       </c>
@@ -5296,7 +5372,9 @@
       <c r="B154" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C154" s="23"/>
+      <c r="C154" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D154" s="23" t="s">
         <v>35</v>
       </c>
@@ -5310,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="155" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>113</v>
       </c>
@@ -5333,7 +5411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="156" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
@@ -5356,7 +5434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="157" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A157" s="1" t="s">
         <v>113</v>
       </c>
@@ -5386,7 +5464,9 @@
       <c r="B158" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="23"/>
+      <c r="C158" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D158" s="16" t="s">
         <v>55</v>
       </c>
@@ -5407,7 +5487,9 @@
       <c r="B159" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C159" s="23"/>
+      <c r="C159" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D159" s="16" t="s">
         <v>71</v>
       </c>
@@ -5421,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="160" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A160" s="1" t="s">
         <v>107</v>
       </c>
@@ -5451,7 +5533,9 @@
       <c r="B161" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="23"/>
+      <c r="C161" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D161" s="16" t="s">
         <v>48</v>
       </c>
@@ -5465,7 +5549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="162" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>112</v>
       </c>
@@ -5488,7 +5572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="163" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A163" s="1" t="s">
         <v>112</v>
       </c>
@@ -5511,7 +5595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="164" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A164" s="1" t="s">
         <v>112</v>
       </c>
@@ -5534,7 +5618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="165" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A165" s="1" t="s">
         <v>111</v>
       </c>
@@ -5557,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="166" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A166" s="1" t="s">
         <v>111</v>
       </c>
@@ -5580,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="167" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A167" s="1" t="s">
         <v>111</v>
       </c>
@@ -5610,7 +5694,9 @@
       <c r="B168" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="23"/>
+      <c r="C168" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D168" s="16" t="s">
         <v>47</v>
       </c>
@@ -5631,7 +5717,9 @@
       <c r="B169" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C169" s="23"/>
+      <c r="C169" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="D169" s="16" t="s">
         <v>48</v>
       </c>
@@ -5645,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="170" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A170" s="24" t="s">
         <v>108</v>
       </c>

--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201FD3F-9AFC-4D52-BABD-E0612EEC1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC50C567-CDE2-4CB1-A870-248B76A6149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="283">
   <si>
     <t>CODE</t>
   </si>
@@ -822,6 +822,57 @@
   <si>
     <t>Hariharan</t>
   </si>
+  <si>
+    <t>PRIYA G</t>
+  </si>
+  <si>
+    <t>SATHYARAJ R</t>
+  </si>
+  <si>
+    <t>VARALAKSHMI M</t>
+  </si>
+  <si>
+    <t>RAJESHKANNAN R</t>
+  </si>
+  <si>
+    <t>ARIVOLI A</t>
+  </si>
+  <si>
+    <t>SJT619</t>
+  </si>
+  <si>
+    <t>DURGESH KUMAR</t>
+  </si>
+  <si>
+    <t>AKILA VICTOR</t>
+  </si>
+  <si>
+    <t>VISWANATHAN P</t>
+  </si>
+  <si>
+    <t>SJT424</t>
+  </si>
+  <si>
+    <t>SUBRAMANYAM REDDY</t>
+  </si>
+  <si>
+    <t>SMVG17</t>
+  </si>
+  <si>
+    <t>TT104</t>
+  </si>
+  <si>
+    <t>CSE4022</t>
+  </si>
+  <si>
+    <t>CSE4019</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Image Processing</t>
+  </si>
 </sst>
 </file>
 
@@ -1526,8 +1577,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}" name="Table1" displayName="Table1" ref="A1:G170" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:G170" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}" name="Table1" displayName="Table1" ref="A1:G198" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G198" xr:uid="{B81E809C-7FBF-4E0A-8BF7-CCF4232E53F6}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="EPJ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9AA79838-E24B-4370-9748-61F76CC10309}" name="CODE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2C28E19A-4D6F-41B8-A21D-8B1A2B7D083C}" name="TITLE" dataDxfId="5"/>
@@ -1829,10 +1886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2130"/>
+  <dimension ref="A1:G2129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:G170"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172:C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1869,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>30</v>
       </c>
@@ -1915,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
@@ -1961,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -2007,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -2122,7 +2179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="18" t="s">
         <v>125</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="18" t="s">
         <v>125</v>
       </c>
@@ -2168,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="18" t="s">
         <v>125</v>
       </c>
@@ -2191,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A16" s="18" t="s">
         <v>125</v>
       </c>
@@ -2214,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="18" t="s">
         <v>125</v>
       </c>
@@ -2237,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
@@ -2260,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A19" s="18" t="s">
         <v>125</v>
       </c>
@@ -2283,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2329,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>77</v>
       </c>
@@ -2375,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="24" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>77</v>
       </c>
@@ -2421,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
@@ -2467,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>128</v>
       </c>
@@ -2490,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="29" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>128</v>
       </c>
@@ -2513,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -2559,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="32" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>136</v>
       </c>
@@ -2605,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>136</v>
       </c>
@@ -2651,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
@@ -2697,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -2743,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -2789,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="42" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>138</v>
       </c>
@@ -2812,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>138</v>
       </c>
@@ -2835,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="44" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>138</v>
       </c>
@@ -2858,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="45" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -2881,7 +2938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="46" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>140</v>
       </c>
@@ -2927,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="48" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="7" t="s">
         <v>140</v>
       </c>
@@ -2973,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="50" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>140</v>
       </c>
@@ -3019,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="7" t="s">
         <v>140</v>
       </c>
@@ -3065,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>144</v>
       </c>
@@ -3088,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="7" t="s">
         <v>144</v>
       </c>
@@ -3111,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A56" s="7" t="s">
         <v>144</v>
       </c>
@@ -3134,7 +3191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -3157,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>148</v>
       </c>
@@ -3180,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -3203,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>150</v>
       </c>
@@ -3249,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -3295,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>150</v>
       </c>
@@ -3341,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="66" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="7" t="s">
         <v>153</v>
       </c>
@@ -3364,7 +3421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="67" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="7" t="s">
         <v>153</v>
       </c>
@@ -3387,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="68" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>153</v>
       </c>
@@ -3410,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="69" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>153</v>
       </c>
@@ -3433,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="70" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>156</v>
       </c>
@@ -3456,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="71" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A71" s="7" t="s">
         <v>156</v>
       </c>
@@ -3479,7 +3536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="72" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="7" t="s">
         <v>156</v>
       </c>
@@ -3525,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="74" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="7" t="s">
         <v>156</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="76" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A76" s="7" t="s">
         <v>159</v>
       </c>
@@ -3594,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="77" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A77" s="7" t="s">
         <v>159</v>
       </c>
@@ -3617,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="78" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A78" s="7" t="s">
         <v>159</v>
       </c>
@@ -3663,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="80" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A80" s="7" t="s">
         <v>159</v>
       </c>
@@ -3709,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="82" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>161</v>
       </c>
@@ -3755,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="84" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A84" s="7" t="s">
         <v>164</v>
       </c>
@@ -3778,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="85" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A85" s="7" t="s">
         <v>164</v>
       </c>
@@ -3801,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="86" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A86" s="7" t="s">
         <v>164</v>
       </c>
@@ -3824,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="87" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
@@ -3847,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="88" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A88" s="7" t="s">
         <v>164</v>
       </c>
@@ -3870,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="89" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A89" s="7" t="s">
         <v>164</v>
       </c>
@@ -3893,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="90" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A90" s="7" t="s">
         <v>168</v>
       </c>
@@ -3939,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="92" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A92" s="7" t="s">
         <v>168</v>
       </c>
@@ -3985,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="94" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A94" s="7" t="s">
         <v>170</v>
       </c>
@@ -4031,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="96" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A96" s="7" t="s">
         <v>170</v>
       </c>
@@ -4077,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="98" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A98" s="7" t="s">
         <v>174</v>
       </c>
@@ -4100,7 +4157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="99" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A99" s="7" t="s">
         <v>174</v>
       </c>
@@ -4123,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="100" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A100" s="7" t="s">
         <v>174</v>
       </c>
@@ -4146,7 +4203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="101" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A101" s="7" t="s">
         <v>174</v>
       </c>
@@ -4169,7 +4226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="102" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A102" s="7" t="s">
         <v>177</v>
       </c>
@@ -4192,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="103" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A103" s="7" t="s">
         <v>177</v>
       </c>
@@ -4215,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="104" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="7" t="s">
         <v>177</v>
       </c>
@@ -4238,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="105" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A105" s="7" t="s">
         <v>177</v>
       </c>
@@ -4261,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="106" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A106" s="7" t="s">
         <v>179</v>
       </c>
@@ -4284,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="107" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A107" s="7" t="s">
         <v>179</v>
       </c>
@@ -4307,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="108" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A108" s="7" t="s">
         <v>179</v>
       </c>
@@ -4330,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="109" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A109" s="7" t="s">
         <v>179</v>
       </c>
@@ -4353,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="110" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A110" s="7" t="s">
         <v>182</v>
       </c>
@@ -4422,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="113" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A113" s="7" t="s">
         <v>182</v>
       </c>
@@ -4445,7 +4502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="114" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A114" s="7" t="s">
         <v>185</v>
       </c>
@@ -4468,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="115" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A115" s="7" t="s">
         <v>187</v>
       </c>
@@ -4491,7 +4548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="116" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A116" s="7" t="s">
         <v>187</v>
       </c>
@@ -4514,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="117" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A117" s="7" t="s">
         <v>192</v>
       </c>
@@ -4537,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="118" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A118" s="7" t="s">
         <v>192</v>
       </c>
@@ -4560,7 +4617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="119" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A119" s="7" t="s">
         <v>192</v>
       </c>
@@ -4583,7 +4640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="120" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A120" s="7" t="s">
         <v>97</v>
       </c>
@@ -4629,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="122" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A122" s="7" t="s">
         <v>97</v>
       </c>
@@ -4675,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="124" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A124" s="7" t="s">
         <v>97</v>
       </c>
@@ -4721,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="126" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
@@ -4767,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="128" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>200</v>
       </c>
@@ -4790,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="129" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>200</v>
       </c>
@@ -4813,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="130" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>202</v>
       </c>
@@ -4836,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="131" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>207</v>
       </c>
@@ -4859,7 +4916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="132" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
@@ -4882,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="133" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A133" s="1" t="s">
         <v>207</v>
       </c>
@@ -4905,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="134" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>207</v>
       </c>
@@ -4928,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>207</v>
       </c>
@@ -4951,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>207</v>
       </c>
@@ -4974,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="137" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A137" s="1" t="s">
         <v>209</v>
       </c>
@@ -4997,7 +5054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="138" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A138" s="1" t="s">
         <v>209</v>
       </c>
@@ -5020,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="139" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>212</v>
       </c>
@@ -5043,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="140" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A140" s="1" t="s">
         <v>104</v>
       </c>
@@ -5066,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="141" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>243</v>
       </c>
@@ -5089,7 +5146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="142" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>245</v>
       </c>
@@ -5112,7 +5169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="143" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>114</v>
       </c>
@@ -5135,7 +5192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="144" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
@@ -5204,7 +5261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>106</v>
       </c>
@@ -5227,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A148" s="1" t="s">
         <v>251</v>
       </c>
@@ -5273,7 +5330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="150" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>254</v>
       </c>
@@ -5296,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="151" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A151" s="1" t="s">
         <v>254</v>
       </c>
@@ -5319,7 +5376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>254</v>
       </c>
@@ -5388,7 +5445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="155" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>113</v>
       </c>
@@ -5411,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="156" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>113</v>
       </c>
@@ -5434,7 +5491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="157" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A157" s="1" t="s">
         <v>113</v>
       </c>
@@ -5503,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="160" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A160" s="1" t="s">
         <v>107</v>
       </c>
@@ -5549,7 +5606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="162" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>112</v>
       </c>
@@ -5572,7 +5629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="163" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A163" s="1" t="s">
         <v>112</v>
       </c>
@@ -5595,7 +5652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="164" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A164" s="1" t="s">
         <v>112</v>
       </c>
@@ -5618,7 +5675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="165" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A165" s="1" t="s">
         <v>111</v>
       </c>
@@ -5641,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="166" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A166" s="1" t="s">
         <v>111</v>
       </c>
@@ -5664,7 +5721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="167" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A167" s="1" t="s">
         <v>111</v>
       </c>
@@ -5733,7 +5790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="170" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="24" t="s">
         <v>108</v>
       </c>
@@ -5756,257 +5813,649 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="1"/>
+    <row r="171" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A171" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G171" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A173" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G175" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="176" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G177" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="178" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="180" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A181" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G183" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A185" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="190" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A191" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G191" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="192" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A193" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="194" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E194" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A195" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A196" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A197" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A198" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G198" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="199" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A199" s="7"/>
@@ -6227,9 +6676,9 @@
     <row r="223" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="1"/>
     </row>
@@ -6441,11 +6890,11 @@
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="8"/>
       <c r="F247" s="6"/>
       <c r="G247" s="1"/>
     </row>
@@ -6515,33 +6964,33 @@
     <row r="255" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
       <c r="F256" s="6"/>
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="11"/>
       <c r="F257" s="6"/>
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+      <c r="A258" s="7"/>
+      <c r="B258" s="7"/>
       <c r="C258" s="9"/>
       <c r="D258" s="10"/>
       <c r="E258" s="11"/>
@@ -6551,18 +7000,18 @@
     <row r="259" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="11"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="14"/>
       <c r="F259" s="6"/>
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="13"/>
-      <c r="E260" s="14"/>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
       <c r="F260" s="6"/>
       <c r="G260" s="1"/>
     </row>
@@ -6659,10 +7108,10 @@
     <row r="271" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="6"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
@@ -6765,12 +7214,12 @@
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A283" s="1"/>
+      <c r="A283" s="17"/>
       <c r="B283" s="1"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
@@ -6981,7 +7430,7 @@
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A307" s="17"/>
+      <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
@@ -7439,13 +7888,13 @@
       <c r="F357" s="16"/>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+    <row r="358" spans="1:7" ht="14.25" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
-      <c r="E358" s="16"/>
-      <c r="F358" s="16"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" ht="14.25" customHeight="1">
@@ -16412,7 +16861,7 @@
       <c r="F1354" s="1"/>
       <c r="G1354" s="1"/>
     </row>
-    <row r="1355" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1355" spans="1:7" ht="14">
       <c r="A1355" s="1"/>
       <c r="B1355" s="1"/>
       <c r="C1355" s="1"/>
@@ -23316,12 +23765,6 @@
       <c r="G2121" s="1"/>
     </row>
     <row r="2122" spans="1:7" ht="14">
-      <c r="A2122" s="1"/>
-      <c r="B2122" s="1"/>
-      <c r="C2122" s="1"/>
-      <c r="D2122" s="2"/>
-      <c r="E2122" s="2"/>
-      <c r="F2122" s="1"/>
       <c r="G2122" s="1"/>
     </row>
     <row r="2123" spans="1:7" ht="14">
@@ -23344,9 +23787,6 @@
     </row>
     <row r="2129" spans="7:7" ht="14">
       <c r="G2129" s="1"/>
-    </row>
-    <row r="2130" spans="7:7" ht="14">
-      <c r="G2130" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
